--- a/rawdata/Eicher_Chronology-all.xlsx
+++ b/rawdata/Eicher_Chronology-all.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1941">
   <si>
     <t>Mississippi seceded</t>
   </si>
@@ -2022,9 +2022,6 @@
     <t>Sat. 9 Apr.</t>
   </si>
   <si>
-    <t>Red River Expedition (Pleasant Hill, La.) Camden Expedition, Ark.  Forrest’s Raid HI</t>
-  </si>
-  <si>
     <t>Sun. io Apr.</t>
   </si>
   <si>
@@ -2442,9 +2439,6 @@
     <t>Atlanta Campaign, Ga.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Weldon Railroad I)  Kinston I, N.C.</t>
-  </si>
-  <si>
     <t>Wed. 22 June</t>
   </si>
   <si>
@@ -2583,9 +2577,6 @@
     <t>Sat. 16 July</t>
   </si>
   <si>
-    <t>Early’s Washington Raid Petersburg, Va. Campaign Rousseau’s Raid, Ala.</t>
-  </si>
-  <si>
     <t>Sun. 17 July</t>
   </si>
   <si>
@@ -2715,15 +2706,9 @@
     <t>Sun. 7 Aug.</t>
   </si>
   <si>
-    <t>Early’s Washington Raid ended (Moorefield I, W.Va.) Petersburg, Va. Campaign</t>
-  </si>
-  <si>
     <t>Mon. 8 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Fort Gaines n, Ala.</t>
-  </si>
-  <si>
     <t>Tues. 9 Aug.</t>
   </si>
   <si>
@@ -2733,96 +2718,51 @@
     <t>Wed. 10 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Wheeler’s Raid II commenced (Covington, Ga.)</t>
-  </si>
-  <si>
     <t>Thurs. 11 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Fri. 12 Aug.</t>
   </si>
   <si>
     <t>Sat. 13 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, Fussell’s Mill I, Charles City Road I, White’s Tavern I, Gravel Hill)  Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Sun. 14 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, New Market Road BI)  Wheeler’s Raid II (Dalton HI, Ga.)</t>
-  </si>
-  <si>
     <t>Mon. 15 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom n. Strawberry Plains II)  Wheeler’s Raid II (Dalton m, Ga.)</t>
-  </si>
-  <si>
     <t>Tues. 16 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, Charles City Road II, White’s Tavern II, Bailey’s Creek) Wheeler’s Raid II  Front Royal ID, Va. (Guard Hill, Cedarville)</t>
-  </si>
-  <si>
     <t>Wed. 17 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains)  Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Thurs. 18 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Yellow House, Blick’s Station, Six Mile House)  Wheeler’s Raid II Kilpatrick’s Raid, Ga. commenced (Sandtown)</t>
-  </si>
-  <si>
     <t>Fri. 19 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Six Mile House) Wheeler’s Raid II  Kilpatrick’s Raid, Ga. (Jonesboro I)</t>
-  </si>
-  <si>
     <t>Sat. 20 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom n. Strawberry Plains, Weldon Railroad II, Globe Tavern, Six Mile House, Fussell’s Mill H)  Wheeler’s Raid II  Kilpatrick’s Raid, Ga. (Lovejoy Station m, McDonough)</t>
-  </si>
-  <si>
     <t>Sun. 21 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Summit Point)  Wheeler’s Raid II Memphis II, Tenn.  Kilpatrick’s Raid, Ga. (Latimer, Decatur II)</t>
-  </si>
-  <si>
     <t>Mon. 22 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Weldon Railroad II, Globe Tavern)  Wheeler’s Raid II  Kilpatrick’s Raid, Ga. ended (Decatur, Buckhead)</t>
-  </si>
-  <si>
     <t>Tues. 23 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Fort Morgan II, Ala. Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Wed. 24 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Ream’s Station HI)  Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Thurs. 25 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Ream’s Station m)  Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Fri. 26 Aug.</t>
   </si>
   <si>
@@ -2832,33 +2772,15 @@
     <t>Sun. 28 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Fort Gilmer, Fort Harrison I, Laurel Hill HI, New Market Heights I, Chaffin’s Farm I) Wheeler’s Raid II  Price’s Mo. Expedition commenced (Camden II, Ark.)</t>
-  </si>
-  <si>
     <t>Mon. 29 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign (Poplar Springs Church I, Jones’s House, Chappell’s House I, Vaughan Road I, Watt’s Farm,</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Pegram’s Farm I, Peeble’s Farm I) Price’s Mo. Expedition (Princeton, Ark.) Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Tues. 30 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Price’s Mo. Expedition (Tulip, Ark.) Wheeler’s Raid II</t>
-  </si>
-  <si>
     <t>Wed. 31 Aug.</t>
   </si>
   <si>
-    <t>Petersburg, Va. Campaign Price’s Mo. Expedition Jonesboro II, Ga. (Rough and Ready) Wheeler’s Raid II Martinsburg HI, W.Va.</t>
-  </si>
-  <si>
     <t>Thurs. 1 Sept.</t>
   </si>
   <si>
@@ -5803,6 +5725,132 @@
   </si>
   <si>
     <t xml:space="preserve">Red River Expedition (Pleasant Hill, La.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Weldon Railroad I)  </t>
+  </si>
+  <si>
+    <t>Kinston I, N.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early’s Washington Raid </t>
+  </si>
+  <si>
+    <t>Rousseau’s Raid, Ala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early’s Washington Raid ended (Moorefield I, W.Va.) </t>
+  </si>
+  <si>
+    <t>Fort Gaines II, Ala.</t>
+  </si>
+  <si>
+    <t>Wheeler’s Raid II commenced (Covington, Ga.)</t>
+  </si>
+  <si>
+    <t>Wheeler’s Raid II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, Fussell’s Mill I, Charles City Road I, White’s Tavern I, Gravel Hill)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, New Market Road BI)  </t>
+  </si>
+  <si>
+    <t>Wheeler’s Raid II (Dalton HI, Ga.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom n. Strawberry Plains II)  </t>
+  </si>
+  <si>
+    <t>Wheeler’s Raid II (Dalton m, Ga.)</t>
+  </si>
+  <si>
+    <t>Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains II, Charles City Road II, White’s Tavern II, Bailey’s Creek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheeler’s Raid II  </t>
+  </si>
+  <si>
+    <t>Front Royal ID, Va. (Guard Hill, Cedarville)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Yellow House, Blick’s Station, Six Mile House) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheeler’s Raid II </t>
+  </si>
+  <si>
+    <t>Kilpatrick’s Raid, Ga. commenced (Sandtown)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Six Mile House) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeler’s Raid II  </t>
+  </si>
+  <si>
+    <t>Kilpatrick’s Raid, Ga. (Jonesboro I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom n. Strawberry Plains, Weldon Railroad II, Globe Tavern, Six Mile House, Fussell’s Mill H)  </t>
+  </si>
+  <si>
+    <t>Kilpatrick’s Raid, Ga. (Lovejoy Station III, McDonough)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Deep Bottom II, Strawberry Plains, Weldon Railroad II, Globe Tavern, Summit Point)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeler’s Raid II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis II, Tenn.  </t>
+  </si>
+  <si>
+    <t>Kilpatrick’s Raid, Ga. (Latimer, Decatur II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Weldon Railroad II, Globe Tavern)  </t>
+  </si>
+  <si>
+    <t>Kilpatrick’s Raid, Ga. ended (Decatur, Buckhead)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Morgan II, Ala. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Ream’s Station III)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Fort Gilmer, Fort Harrison I, Laurel Hill HI, New Market Heights I, Chaffin’s Farm I) </t>
+  </si>
+  <si>
+    <t>Price’s Mo. Expedition commenced (Camden II, Ark.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersburg, Va. Campaign (Poplar Springs Church I, Jones’s House, Chappell’s House I, Vaughan Road I, Watt’s Farm, Pegram’s Farm I, Peeble’s Farm I) </t>
+  </si>
+  <si>
+    <t>Price’s Mo. Expedition (Princeton, Ark.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wheeler’s Raid II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price’s Mo. Expedition (Tulip, Ark.) </t>
+  </si>
+  <si>
+    <t>Price’s Mo. Expedition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonesboro II, Ga. (Rough and Ready) </t>
+  </si>
+  <si>
+    <t>Martinsburg III, W.Va.</t>
   </si>
 </sst>
 </file>
@@ -6119,10 +6167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1004"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="E598" sqref="E598"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6214,7 +6262,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>1446</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6238,7 +6286,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>1447</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6278,7 +6326,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>1450</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
@@ -6302,7 +6350,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>1451</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -6374,7 +6422,7 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>1452</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
@@ -6406,7 +6454,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>1453</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6422,7 +6470,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>1454</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6486,7 +6534,7 @@
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>1455</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6499,18 +6547,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>1302</v>
+        <v>1276</v>
       </c>
       <c r="C46" t="s">
-        <v>1303</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>1304</v>
+        <v>1278</v>
       </c>
       <c r="C47" t="s">
-        <v>1305</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6518,541 +6566,541 @@
         <v>1862</v>
       </c>
       <c r="B48" t="s">
-        <v>1306</v>
+        <v>1280</v>
       </c>
       <c r="C48" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>1308</v>
+        <v>1282</v>
       </c>
       <c r="C49" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>1309</v>
+        <v>1283</v>
       </c>
       <c r="C50" t="s">
-        <v>1698</v>
+        <v>1672</v>
       </c>
       <c r="D50" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>1310</v>
+        <v>1284</v>
       </c>
       <c r="C51" t="s">
-        <v>1457</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>1311</v>
+        <v>1285</v>
       </c>
       <c r="C52" t="s">
-        <v>1457</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>1312</v>
+        <v>1286</v>
       </c>
       <c r="C53" t="s">
-        <v>1458</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>1313</v>
+        <v>1287</v>
       </c>
       <c r="C54" t="s">
-        <v>1459</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
       <c r="C55" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>1316</v>
+        <v>1290</v>
       </c>
       <c r="C56" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>1317</v>
+        <v>1291</v>
       </c>
       <c r="C57" t="s">
-        <v>1318</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>1319</v>
+        <v>1293</v>
       </c>
       <c r="C58" t="s">
-        <v>1320</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="C59" t="s">
-        <v>1322</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>1323</v>
+        <v>1297</v>
       </c>
       <c r="C60" t="s">
-        <v>1460</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>1324</v>
+        <v>1298</v>
       </c>
       <c r="C61" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>1326</v>
+        <v>1300</v>
       </c>
       <c r="C62" t="s">
-        <v>1461</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
       <c r="C63" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>1328</v>
+        <v>1302</v>
       </c>
       <c r="C64" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>1329</v>
+        <v>1303</v>
       </c>
       <c r="C65" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>1330</v>
+        <v>1304</v>
       </c>
       <c r="C66" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>1331</v>
+        <v>1305</v>
       </c>
       <c r="C67" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>1332</v>
+        <v>1306</v>
       </c>
       <c r="C68" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>1333</v>
+        <v>1307</v>
       </c>
       <c r="C69" t="s">
-        <v>1462</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>1334</v>
+        <v>1308</v>
       </c>
       <c r="C70" t="s">
-        <v>1335</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>1336</v>
+        <v>1310</v>
       </c>
       <c r="C71" t="s">
-        <v>1337</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>1338</v>
+        <v>1312</v>
       </c>
       <c r="C72" t="s">
-        <v>1339</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>1340</v>
+        <v>1314</v>
       </c>
       <c r="C73" t="s">
-        <v>1341</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>1342</v>
+        <v>1316</v>
       </c>
       <c r="C74" t="s">
-        <v>1343</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>1344</v>
+        <v>1318</v>
       </c>
       <c r="C75" t="s">
-        <v>1345</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>1346</v>
+        <v>1320</v>
       </c>
       <c r="C76" t="s">
-        <v>1347</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>1348</v>
+        <v>1322</v>
       </c>
       <c r="C77" t="s">
-        <v>1349</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>1350</v>
+        <v>1324</v>
       </c>
       <c r="C78" t="s">
-        <v>1351</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>1352</v>
+        <v>1326</v>
       </c>
       <c r="C79" t="s">
-        <v>1353</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>1354</v>
+        <v>1328</v>
       </c>
       <c r="C80" t="s">
-        <v>1355</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>1356</v>
+        <v>1330</v>
       </c>
       <c r="C81" t="s">
-        <v>1357</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>1358</v>
+        <v>1332</v>
       </c>
       <c r="C82" t="s">
-        <v>1359</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>1360</v>
+        <v>1334</v>
       </c>
       <c r="C83" t="s">
-        <v>1361</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>1362</v>
+        <v>1336</v>
       </c>
       <c r="C84" t="s">
-        <v>1363</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
       <c r="C85" t="s">
-        <v>1363</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
       <c r="C86" t="s">
-        <v>1366</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>1367</v>
+        <v>1341</v>
       </c>
       <c r="C87" t="s">
-        <v>1368</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>1369</v>
+        <v>1343</v>
       </c>
       <c r="C88" t="s">
-        <v>1370</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="C89" t="s">
-        <v>1448</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>1372</v>
+        <v>1346</v>
       </c>
       <c r="C90" t="s">
-        <v>1449</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>1373</v>
+        <v>1347</v>
       </c>
       <c r="C91" t="s">
-        <v>1374</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>1375</v>
+        <v>1349</v>
       </c>
       <c r="C92" t="s">
-        <v>1463</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>1376</v>
+        <v>1350</v>
       </c>
       <c r="C93" t="s">
-        <v>1464</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>1377</v>
+        <v>1351</v>
       </c>
       <c r="C94" t="s">
-        <v>1378</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>1379</v>
+        <v>1353</v>
       </c>
       <c r="C95" t="s">
-        <v>1378</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>1380</v>
+        <v>1354</v>
       </c>
       <c r="C96" t="s">
-        <v>1378</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>1381</v>
+        <v>1355</v>
       </c>
       <c r="C97" t="s">
-        <v>1378</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>1382</v>
+        <v>1356</v>
       </c>
       <c r="C98" t="s">
-        <v>1383</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>1384</v>
+        <v>1358</v>
       </c>
       <c r="C99" t="s">
-        <v>1385</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>1386</v>
+        <v>1360</v>
       </c>
       <c r="C100" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>1388</v>
+        <v>1362</v>
       </c>
       <c r="C101" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>1389</v>
+        <v>1363</v>
       </c>
       <c r="C102" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>1390</v>
+        <v>1364</v>
       </c>
       <c r="C103" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>1391</v>
+        <v>1365</v>
       </c>
       <c r="C104" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>1392</v>
+        <v>1366</v>
       </c>
       <c r="C105" t="s">
-        <v>1465</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>1393</v>
+        <v>1367</v>
       </c>
       <c r="C106" t="s">
-        <v>1465</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>1394</v>
+        <v>1368</v>
       </c>
       <c r="C107" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>1395</v>
+        <v>1369</v>
       </c>
       <c r="C108" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>1396</v>
+        <v>1370</v>
       </c>
       <c r="C109" t="s">
-        <v>1466</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>1397</v>
+        <v>1371</v>
       </c>
       <c r="C110" t="s">
-        <v>1466</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>1398</v>
+        <v>1372</v>
       </c>
       <c r="C111" t="s">
-        <v>1467</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>1399</v>
+        <v>1373</v>
       </c>
       <c r="C112" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>1400</v>
+        <v>1374</v>
       </c>
       <c r="C113" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>1401</v>
+        <v>1375</v>
       </c>
       <c r="C114" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.15">
@@ -7060,7 +7108,7 @@
         <v>80</v>
       </c>
       <c r="C115" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.15">
@@ -7068,7 +7116,7 @@
         <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.15">
@@ -7076,7 +7124,7 @@
         <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.15">
@@ -7084,7 +7132,7 @@
         <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.15">
@@ -7092,7 +7140,7 @@
         <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>1468</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.15">
@@ -7100,7 +7148,7 @@
         <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>1469</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.15">
@@ -7108,7 +7156,7 @@
         <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>1470</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.15">
@@ -7116,7 +7164,7 @@
         <v>87</v>
       </c>
       <c r="C122" t="s">
-        <v>1471</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.15">
@@ -7132,7 +7180,7 @@
         <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>1472</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.15">
@@ -7148,7 +7196,7 @@
         <v>93</v>
       </c>
       <c r="C126" t="s">
-        <v>1473</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.15">
@@ -7196,7 +7244,7 @@
         <v>99</v>
       </c>
       <c r="C132" t="s">
-        <v>1474</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.15">
@@ -7204,7 +7252,7 @@
         <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>1475</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.15">
@@ -7212,7 +7260,7 @@
         <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.15">
@@ -7220,7 +7268,7 @@
         <v>102</v>
       </c>
       <c r="C135" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.15">
@@ -7228,7 +7276,7 @@
         <v>103</v>
       </c>
       <c r="C136" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.15">
@@ -7236,7 +7284,7 @@
         <v>104</v>
       </c>
       <c r="C137" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.15">
@@ -7244,7 +7292,7 @@
         <v>105</v>
       </c>
       <c r="C138" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.15">
@@ -7252,7 +7300,7 @@
         <v>106</v>
       </c>
       <c r="C139" t="s">
-        <v>1477</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.15">
@@ -7260,7 +7308,7 @@
         <v>107</v>
       </c>
       <c r="C140" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.15">
@@ -7268,7 +7316,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.15">
@@ -7276,7 +7324,7 @@
         <v>109</v>
       </c>
       <c r="C142" t="s">
-        <v>1478</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.15">
@@ -7284,7 +7332,7 @@
         <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>1479</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.15">
@@ -7292,7 +7340,7 @@
         <v>111</v>
       </c>
       <c r="C144" t="s">
-        <v>1480</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.15">
@@ -7300,7 +7348,7 @@
         <v>112</v>
       </c>
       <c r="C145" t="s">
-        <v>1480</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.15">
@@ -7308,7 +7356,7 @@
         <v>113</v>
       </c>
       <c r="C146" t="s">
-        <v>1480</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.15">
@@ -7316,7 +7364,7 @@
         <v>114</v>
       </c>
       <c r="C147" t="s">
-        <v>1481</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.15">
@@ -7332,7 +7380,7 @@
         <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>1482</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.15">
@@ -7348,7 +7396,7 @@
         <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>1483</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.15">
@@ -7356,7 +7404,7 @@
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>1484</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.15">
@@ -7372,7 +7420,7 @@
         <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>1485</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.15">
@@ -7380,7 +7428,7 @@
         <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>1486</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.15">
@@ -7404,7 +7452,7 @@
         <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>1487</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.15">
@@ -7412,7 +7460,7 @@
         <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>1488</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.15">
@@ -7420,7 +7468,7 @@
         <v>129</v>
       </c>
       <c r="C160" t="s">
-        <v>1489</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
@@ -7444,7 +7492,7 @@
         <v>133</v>
       </c>
       <c r="C163" t="s">
-        <v>1490</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
@@ -7476,7 +7524,7 @@
         <v>137</v>
       </c>
       <c r="C167" t="s">
-        <v>1491</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
@@ -7484,7 +7532,7 @@
         <v>138</v>
       </c>
       <c r="C168" t="s">
-        <v>1492</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
@@ -7492,7 +7540,7 @@
         <v>139</v>
       </c>
       <c r="C169" t="s">
-        <v>1493</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
@@ -7508,7 +7556,7 @@
         <v>141</v>
       </c>
       <c r="C171" t="s">
-        <v>1494</v>
+        <v>1468</v>
       </c>
       <c r="D171" t="s">
         <v>125</v>
@@ -7519,13 +7567,13 @@
         <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>1495</v>
+        <v>1469</v>
       </c>
       <c r="D172" t="s">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="E172" t="s">
-        <v>1497</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
@@ -7557,10 +7605,10 @@
         <v>149</v>
       </c>
       <c r="C176" t="s">
-        <v>1498</v>
+        <v>1472</v>
       </c>
       <c r="D176" t="s">
-        <v>1499</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
@@ -7568,10 +7616,10 @@
         <v>150</v>
       </c>
       <c r="C177" t="s">
-        <v>1500</v>
+        <v>1474</v>
       </c>
       <c r="D177" t="s">
-        <v>1499</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
@@ -7587,10 +7635,10 @@
         <v>153</v>
       </c>
       <c r="C179" t="s">
-        <v>1501</v>
+        <v>1475</v>
       </c>
       <c r="D179" t="s">
-        <v>1502</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
@@ -7670,10 +7718,10 @@
         <v>172</v>
       </c>
       <c r="C189" t="s">
-        <v>1503</v>
+        <v>1477</v>
       </c>
       <c r="D189" t="s">
-        <v>1504</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
@@ -7700,10 +7748,10 @@
         <v>176</v>
       </c>
       <c r="D192" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
       <c r="E192" t="s">
-        <v>1506</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.15">
@@ -7719,169 +7767,169 @@
         <v>180</v>
       </c>
       <c r="C194" t="s">
-        <v>1507</v>
+        <v>1481</v>
       </c>
       <c r="D194" t="s">
-        <v>1508</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>1402</v>
+        <v>1376</v>
       </c>
       <c r="C195" t="s">
-        <v>1509</v>
+        <v>1483</v>
       </c>
       <c r="D195" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>1403</v>
+        <v>1377</v>
       </c>
       <c r="C196" t="s">
-        <v>1511</v>
+        <v>1485</v>
       </c>
       <c r="D196" t="s">
-        <v>1508</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>1404</v>
+        <v>1378</v>
       </c>
       <c r="C197" t="s">
-        <v>1512</v>
+        <v>1486</v>
       </c>
       <c r="D197" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
-        <v>1405</v>
+        <v>1379</v>
       </c>
       <c r="C198" t="s">
-        <v>1513</v>
+        <v>1487</v>
       </c>
       <c r="D198" t="s">
-        <v>1514</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="C199" t="s">
-        <v>1515</v>
+        <v>1489</v>
       </c>
       <c r="D199" t="s">
-        <v>1516</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
-        <v>1407</v>
+        <v>1381</v>
       </c>
       <c r="C200" t="s">
-        <v>1517</v>
+        <v>1491</v>
       </c>
       <c r="D200" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>1408</v>
+        <v>1382</v>
       </c>
       <c r="C201" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
       <c r="D201" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
       <c r="E201" t="s">
-        <v>1519</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
-        <v>1409</v>
+        <v>1383</v>
       </c>
       <c r="C202" t="s">
-        <v>1410</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>1411</v>
+        <v>1385</v>
       </c>
       <c r="C203" t="s">
-        <v>1520</v>
+        <v>1494</v>
       </c>
       <c r="D203" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
-        <v>1412</v>
+        <v>1386</v>
       </c>
       <c r="C204" t="s">
-        <v>1521</v>
+        <v>1495</v>
       </c>
       <c r="D204" t="s">
-        <v>1522</v>
+        <v>1496</v>
       </c>
       <c r="E204" t="s">
-        <v>1508</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>1413</v>
+        <v>1387</v>
       </c>
       <c r="C205" t="s">
-        <v>1523</v>
+        <v>1497</v>
       </c>
       <c r="D205" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
-        <v>1414</v>
+        <v>1388</v>
       </c>
       <c r="C206" t="s">
-        <v>1524</v>
+        <v>1498</v>
       </c>
       <c r="D206" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>1415</v>
+        <v>1389</v>
       </c>
       <c r="C207" t="s">
-        <v>1525</v>
+        <v>1499</v>
       </c>
       <c r="D207" t="s">
-        <v>1526</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
       <c r="C208" t="s">
-        <v>1417</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
       <c r="C209" t="s">
         <v>176</v>
@@ -7889,7 +7937,7 @@
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
-        <v>1419</v>
+        <v>1393</v>
       </c>
       <c r="C210" t="s">
         <v>176</v>
@@ -7897,7 +7945,7 @@
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
-        <v>1420</v>
+        <v>1394</v>
       </c>
       <c r="C211" t="s">
         <v>176</v>
@@ -7905,15 +7953,15 @@
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
-        <v>1421</v>
+        <v>1395</v>
       </c>
       <c r="C212" t="s">
-        <v>1422</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
-        <v>1423</v>
+        <v>1397</v>
       </c>
       <c r="C213" t="s">
         <v>176</v>
@@ -7921,90 +7969,90 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
-        <v>1424</v>
+        <v>1398</v>
       </c>
       <c r="C214" t="s">
-        <v>1425</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
-        <v>1426</v>
+        <v>1400</v>
       </c>
       <c r="C215" t="s">
-        <v>1427</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
-        <v>1428</v>
+        <v>1402</v>
       </c>
       <c r="C216" t="s">
-        <v>1429</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
-        <v>1430</v>
+        <v>1404</v>
       </c>
       <c r="C217" t="s">
-        <v>1431</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
       <c r="C218" t="s">
-        <v>1433</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
-        <v>1434</v>
+        <v>1408</v>
       </c>
       <c r="C219" t="s">
-        <v>1435</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
-        <v>1436</v>
+        <v>1410</v>
       </c>
       <c r="C220" t="s">
-        <v>1437</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
-        <v>1438</v>
+        <v>1412</v>
       </c>
       <c r="C221" t="s">
-        <v>1439</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
-        <v>1440</v>
+        <v>1414</v>
       </c>
       <c r="C222" t="s">
-        <v>1441</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
-        <v>1442</v>
+        <v>1416</v>
       </c>
       <c r="C223" t="s">
-        <v>1443</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
-        <v>1444</v>
+        <v>1418</v>
       </c>
       <c r="C224" t="s">
-        <v>1445</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -8012,10 +8060,10 @@
         <v>181</v>
       </c>
       <c r="C225" t="s">
-        <v>1527</v>
+        <v>1501</v>
       </c>
       <c r="D225" t="s">
-        <v>1528</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
@@ -8058,10 +8106,10 @@
         <v>190</v>
       </c>
       <c r="C230" t="s">
-        <v>1699</v>
+        <v>1673</v>
       </c>
       <c r="D230" t="s">
-        <v>1700</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -8141,10 +8189,10 @@
         <v>207</v>
       </c>
       <c r="C240" t="s">
-        <v>1529</v>
+        <v>1503</v>
       </c>
       <c r="D240" t="s">
-        <v>1530</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.15">
@@ -8152,10 +8200,10 @@
         <v>208</v>
       </c>
       <c r="C241" t="s">
-        <v>1531</v>
+        <v>1505</v>
       </c>
       <c r="D241" t="s">
-        <v>1532</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
@@ -8251,10 +8299,10 @@
         <v>229</v>
       </c>
       <c r="C253" t="s">
-        <v>1533</v>
+        <v>1507</v>
       </c>
       <c r="D253" t="s">
-        <v>1534</v>
+        <v>1508</v>
       </c>
       <c r="E253" t="s">
         <v>227</v>
@@ -8353,7 +8401,7 @@
         <v>243</v>
       </c>
       <c r="C265" t="s">
-        <v>1535</v>
+        <v>1509</v>
       </c>
       <c r="D265" t="s">
         <v>227</v>
@@ -8372,10 +8420,10 @@
         <v>245</v>
       </c>
       <c r="C267" t="s">
-        <v>1536</v>
+        <v>1510</v>
       </c>
       <c r="D267" t="s">
-        <v>1537</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.15">
@@ -8407,10 +8455,10 @@
         <v>252</v>
       </c>
       <c r="C271" t="s">
-        <v>1538</v>
+        <v>1512</v>
       </c>
       <c r="D271" t="s">
-        <v>1539</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.15">
@@ -8418,13 +8466,13 @@
         <v>253</v>
       </c>
       <c r="C272" t="s">
-        <v>1539</v>
+        <v>1513</v>
       </c>
       <c r="D272" t="s">
-        <v>1540</v>
+        <v>1514</v>
       </c>
       <c r="E272" t="s">
-        <v>1541</v>
+        <v>1515</v>
       </c>
       <c r="F272" t="s">
         <v>256</v>
@@ -8435,7 +8483,7 @@
         <v>254</v>
       </c>
       <c r="C273" t="s">
-        <v>1539</v>
+        <v>1513</v>
       </c>
       <c r="D273" t="s">
         <v>256</v>
@@ -8494,10 +8542,10 @@
         <v>264</v>
       </c>
       <c r="C280" t="s">
-        <v>1542</v>
+        <v>1516</v>
       </c>
       <c r="D280" t="s">
-        <v>1543</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.15">
@@ -8505,10 +8553,10 @@
         <v>265</v>
       </c>
       <c r="C281" t="s">
-        <v>1544</v>
+        <v>1518</v>
       </c>
       <c r="D281" t="s">
-        <v>1545</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
@@ -8516,13 +8564,13 @@
         <v>266</v>
       </c>
       <c r="C282" t="s">
-        <v>1544</v>
+        <v>1518</v>
       </c>
       <c r="D282" t="s">
-        <v>1546</v>
+        <v>1520</v>
       </c>
       <c r="E282" t="s">
-        <v>1547</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
@@ -8530,10 +8578,10 @@
         <v>267</v>
       </c>
       <c r="C283" t="s">
-        <v>1544</v>
+        <v>1518</v>
       </c>
       <c r="D283" t="s">
-        <v>1548</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.15">
@@ -8544,7 +8592,7 @@
         <v>256</v>
       </c>
       <c r="D284" t="s">
-        <v>1549</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.15">
@@ -8552,10 +8600,10 @@
         <v>269</v>
       </c>
       <c r="C285" t="s">
-        <v>1550</v>
+        <v>1524</v>
       </c>
       <c r="D285" t="s">
-        <v>1551</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.15">
@@ -8563,10 +8611,10 @@
         <v>270</v>
       </c>
       <c r="C286" t="s">
-        <v>1544</v>
+        <v>1518</v>
       </c>
       <c r="D286" t="s">
-        <v>1552</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.15">
@@ -8574,10 +8622,10 @@
         <v>271</v>
       </c>
       <c r="C287" t="s">
-        <v>1544</v>
+        <v>1518</v>
       </c>
       <c r="D287" t="s">
-        <v>1567</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.15">
@@ -8585,13 +8633,13 @@
         <v>272</v>
       </c>
       <c r="C288" t="s">
-        <v>1550</v>
+        <v>1524</v>
       </c>
       <c r="D288" t="s">
-        <v>1553</v>
+        <v>1527</v>
       </c>
       <c r="E288" t="s">
-        <v>1554</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.15">
@@ -8599,13 +8647,13 @@
         <v>273</v>
       </c>
       <c r="C289" t="s">
-        <v>1550</v>
+        <v>1524</v>
       </c>
       <c r="D289" t="s">
-        <v>1566</v>
+        <v>1540</v>
       </c>
       <c r="E289" t="s">
-        <v>1555</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.15">
@@ -8613,16 +8661,16 @@
         <v>274</v>
       </c>
       <c r="C290" t="s">
-        <v>1550</v>
+        <v>1524</v>
       </c>
       <c r="D290" t="s">
-        <v>1565</v>
+        <v>1539</v>
       </c>
       <c r="E290" t="s">
-        <v>1556</v>
+        <v>1530</v>
       </c>
       <c r="F290" t="s">
-        <v>1555</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.15">
@@ -8630,13 +8678,13 @@
         <v>275</v>
       </c>
       <c r="C291" t="s">
-        <v>1557</v>
+        <v>1531</v>
       </c>
       <c r="D291" t="s">
-        <v>1558</v>
+        <v>1532</v>
       </c>
       <c r="E291" t="s">
-        <v>1559</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.15">
@@ -8644,16 +8692,16 @@
         <v>276</v>
       </c>
       <c r="C292" t="s">
-        <v>1560</v>
+        <v>1534</v>
       </c>
       <c r="D292" t="s">
-        <v>1561</v>
+        <v>1535</v>
       </c>
       <c r="E292" t="s">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="F292" t="s">
-        <v>1563</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.15">
@@ -8661,10 +8709,10 @@
         <v>277</v>
       </c>
       <c r="C293" t="s">
-        <v>1560</v>
+        <v>1534</v>
       </c>
       <c r="D293" t="s">
-        <v>1564</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.15">
@@ -8680,10 +8728,10 @@
         <v>280</v>
       </c>
       <c r="C295" t="s">
-        <v>1568</v>
+        <v>1542</v>
       </c>
       <c r="D295" t="s">
-        <v>1569</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.15">
@@ -8707,7 +8755,7 @@
         <v>285</v>
       </c>
       <c r="C298" t="s">
-        <v>1570</v>
+        <v>1544</v>
       </c>
       <c r="D298" t="s">
         <v>287</v>
@@ -8742,10 +8790,10 @@
         <v>291</v>
       </c>
       <c r="C302" t="s">
-        <v>1571</v>
+        <v>1545</v>
       </c>
       <c r="D302" t="s">
-        <v>1572</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.15">
@@ -8809,7 +8857,7 @@
         <v>306</v>
       </c>
       <c r="C310" t="s">
-        <v>1573</v>
+        <v>1547</v>
       </c>
       <c r="D310" t="s">
         <v>305</v>
@@ -8844,7 +8892,7 @@
         <v>310</v>
       </c>
       <c r="C314" t="s">
-        <v>1574</v>
+        <v>1548</v>
       </c>
       <c r="D314" t="s">
         <v>305</v>
@@ -8879,7 +8927,7 @@
         <v>316</v>
       </c>
       <c r="C318" t="s">
-        <v>1575</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.15">
@@ -8895,7 +8943,7 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>1576</v>
+        <v>1550</v>
       </c>
       <c r="D320" t="s">
         <v>323</v>
@@ -8906,10 +8954,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>1577</v>
+        <v>1551</v>
       </c>
       <c r="D321" t="s">
-        <v>1578</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.15">
@@ -8917,10 +8965,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>1579</v>
+        <v>1553</v>
       </c>
       <c r="D322" t="s">
-        <v>1580</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.15">
@@ -8944,13 +8992,13 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>1581</v>
+        <v>1555</v>
       </c>
       <c r="D325" t="s">
-        <v>1582</v>
+        <v>1556</v>
       </c>
       <c r="E325" t="s">
-        <v>1583</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.15">
@@ -8958,13 +9006,13 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="D326" t="s">
-        <v>1585</v>
+        <v>1559</v>
       </c>
       <c r="E326" t="s">
-        <v>1586</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.15">
@@ -8972,16 +9020,16 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>1587</v>
+        <v>1561</v>
       </c>
       <c r="D327" t="s">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="E327" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="F327" t="s">
-        <v>1578</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.15">
@@ -8989,10 +9037,10 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="D328" t="s">
-        <v>1591</v>
+        <v>1565</v>
       </c>
       <c r="E328" t="s">
         <v>323</v>
@@ -9003,19 +9051,19 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>1701</v>
+        <v>1675</v>
       </c>
       <c r="D329" t="s">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="E329" t="s">
-        <v>1702</v>
+        <v>1676</v>
       </c>
       <c r="F329" t="s">
-        <v>1703</v>
+        <v>1677</v>
       </c>
       <c r="G329" t="s">
-        <v>1704</v>
+        <v>1678</v>
       </c>
       <c r="H329" t="s">
         <v>323</v>
@@ -9026,19 +9074,19 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>1705</v>
+        <v>1679</v>
       </c>
       <c r="D330" t="s">
-        <v>1706</v>
+        <v>1680</v>
       </c>
       <c r="E330" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="F330" t="s">
-        <v>1708</v>
+        <v>1682</v>
       </c>
       <c r="G330" t="s">
-        <v>1709</v>
+        <v>1683</v>
       </c>
       <c r="H330" t="s">
         <v>323</v>
@@ -9049,19 +9097,19 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>1710</v>
+        <v>1684</v>
       </c>
       <c r="D331" t="s">
-        <v>1711</v>
+        <v>1685</v>
       </c>
       <c r="E331" t="s">
-        <v>1712</v>
+        <v>1686</v>
       </c>
       <c r="F331" t="s">
-        <v>1713</v>
+        <v>1687</v>
       </c>
       <c r="G331" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="H331" t="s">
         <v>323</v>
@@ -9072,19 +9120,19 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>1715</v>
+        <v>1689</v>
       </c>
       <c r="D332" t="s">
-        <v>1716</v>
+        <v>1690</v>
       </c>
       <c r="E332" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="F332" t="s">
-        <v>1717</v>
+        <v>1691</v>
       </c>
       <c r="G332" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="H332" t="s">
         <v>323</v>
@@ -9095,22 +9143,22 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>1710</v>
+        <v>1684</v>
       </c>
       <c r="D333" t="s">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="E333" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="F333" t="s">
-        <v>1713</v>
+        <v>1687</v>
       </c>
       <c r="G333" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="H333" t="s">
-        <v>1720</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.15">
@@ -9118,22 +9166,22 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>1719</v>
+        <v>1693</v>
       </c>
       <c r="D334" t="s">
-        <v>1721</v>
+        <v>1695</v>
       </c>
       <c r="E334" t="s">
-        <v>1722</v>
+        <v>1696</v>
       </c>
       <c r="F334" t="s">
-        <v>1708</v>
+        <v>1682</v>
       </c>
       <c r="G334" t="s">
-        <v>1723</v>
+        <v>1697</v>
       </c>
       <c r="H334" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.15">
@@ -9141,22 +9189,22 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>1719</v>
+        <v>1693</v>
       </c>
       <c r="D335" t="s">
-        <v>1725</v>
+        <v>1699</v>
       </c>
       <c r="E335" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="F335" t="s">
-        <v>1713</v>
+        <v>1687</v>
       </c>
       <c r="G335" t="s">
-        <v>1726</v>
+        <v>1700</v>
       </c>
       <c r="H335" t="s">
-        <v>1727</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.15">
@@ -9164,22 +9212,22 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>1728</v>
+        <v>1702</v>
       </c>
       <c r="D336" t="s">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="E336" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="F336" t="s">
-        <v>1729</v>
+        <v>1703</v>
       </c>
       <c r="G336" t="s">
-        <v>1730</v>
+        <v>1704</v>
       </c>
       <c r="H336" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="337" spans="2:11" x14ac:dyDescent="0.15">
@@ -9187,28 +9235,28 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>1731</v>
+        <v>1705</v>
       </c>
       <c r="D337" t="s">
-        <v>1732</v>
+        <v>1706</v>
       </c>
       <c r="E337" t="s">
-        <v>1733</v>
+        <v>1707</v>
       </c>
       <c r="F337" t="s">
-        <v>1713</v>
+        <v>1687</v>
       </c>
       <c r="G337" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="H337" t="s">
-        <v>1734</v>
+        <v>1708</v>
       </c>
       <c r="I337" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
       <c r="J337" t="s">
-        <v>1735</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.15">
@@ -9216,28 +9264,28 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>1719</v>
+        <v>1693</v>
       </c>
       <c r="D338" t="s">
-        <v>1736</v>
+        <v>1710</v>
       </c>
       <c r="E338" t="s">
-        <v>1737</v>
+        <v>1711</v>
       </c>
       <c r="F338" t="s">
-        <v>1738</v>
+        <v>1712</v>
       </c>
       <c r="G338" t="s">
-        <v>1739</v>
+        <v>1713</v>
       </c>
       <c r="H338" t="s">
-        <v>1740</v>
+        <v>1714</v>
       </c>
       <c r="I338" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
       <c r="J338" t="s">
-        <v>1741</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.15">
@@ -9245,31 +9293,31 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>1760</v>
+        <v>1734</v>
       </c>
       <c r="D339" t="s">
-        <v>1754</v>
+        <v>1728</v>
       </c>
       <c r="E339" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="F339" t="s">
-        <v>1755</v>
+        <v>1729</v>
       </c>
       <c r="G339" t="s">
-        <v>1756</v>
+        <v>1730</v>
       </c>
       <c r="H339" t="s">
-        <v>1757</v>
+        <v>1731</v>
       </c>
       <c r="I339" t="s">
-        <v>1758</v>
+        <v>1732</v>
       </c>
       <c r="J339" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
       <c r="K339" t="s">
-        <v>1759</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.15">
@@ -9277,31 +9325,31 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>1753</v>
+        <v>1727</v>
       </c>
       <c r="D340" t="s">
-        <v>1751</v>
+        <v>1725</v>
       </c>
       <c r="E340" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="F340" t="s">
-        <v>1752</v>
+        <v>1726</v>
       </c>
       <c r="G340" t="s">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H340" t="s">
-        <v>1748</v>
+        <v>1722</v>
       </c>
       <c r="I340" t="s">
-        <v>1749</v>
+        <v>1723</v>
       </c>
       <c r="J340" t="s">
-        <v>1720</v>
+        <v>1694</v>
       </c>
       <c r="K340" t="s">
-        <v>1750</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.15">
@@ -9309,28 +9357,28 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D341" t="s">
-        <v>1738</v>
+        <v>1712</v>
       </c>
       <c r="E341" t="s">
-        <v>1742</v>
+        <v>1716</v>
       </c>
       <c r="F341" t="s">
-        <v>1743</v>
+        <v>1717</v>
       </c>
       <c r="G341" t="s">
-        <v>1744</v>
+        <v>1718</v>
       </c>
       <c r="H341" t="s">
-        <v>1745</v>
+        <v>1719</v>
       </c>
       <c r="I341" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J341" t="s">
         <v>1720</v>
-      </c>
-      <c r="J341" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.15">
@@ -9338,25 +9386,25 @@
         <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="D342" t="s">
-        <v>1729</v>
+        <v>1703</v>
       </c>
       <c r="E342" t="s">
-        <v>1768</v>
+        <v>1742</v>
       </c>
       <c r="F342" t="s">
-        <v>1769</v>
+        <v>1743</v>
       </c>
       <c r="G342" t="s">
-        <v>1770</v>
+        <v>1744</v>
       </c>
       <c r="H342" t="s">
-        <v>1771</v>
+        <v>1745</v>
       </c>
       <c r="I342" t="s">
-        <v>1764</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.15">
@@ -9364,13 +9412,13 @@
         <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D343" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
       <c r="E343" t="s">
-        <v>1767</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="344" spans="2:11" x14ac:dyDescent="0.15">
@@ -9378,13 +9426,13 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D344" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
       <c r="E344" t="s">
-        <v>1764</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.15">
@@ -9392,16 +9440,16 @@
         <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D345" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
       <c r="E345" t="s">
-        <v>1765</v>
+        <v>1739</v>
       </c>
       <c r="F345" t="s">
-        <v>1766</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="346" spans="2:11" x14ac:dyDescent="0.15">
@@ -9409,10 +9457,10 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D346" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="347" spans="2:11" x14ac:dyDescent="0.15">
@@ -9420,10 +9468,10 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D347" t="s">
-        <v>1774</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="348" spans="2:11" x14ac:dyDescent="0.15">
@@ -9431,10 +9479,10 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D348" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.15">
@@ -9442,10 +9490,10 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D349" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.15">
@@ -9453,10 +9501,10 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="D350" t="s">
-        <v>1773</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.15">
@@ -9464,10 +9512,10 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D351" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="352" spans="2:11" x14ac:dyDescent="0.15">
@@ -9475,10 +9523,10 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D352" t="s">
-        <v>1775</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.15">
@@ -9486,10 +9534,10 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D353" t="s">
-        <v>1776</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.15">
@@ -9497,10 +9545,10 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="D354" t="s">
-        <v>1777</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.15">
@@ -9508,10 +9556,10 @@
         <v>355</v>
       </c>
       <c r="C355" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="D355" t="s">
-        <v>1778</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.15">
@@ -9519,7 +9567,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="D356" t="s">
         <v>374</v>
@@ -9530,7 +9578,7 @@
         <v>357</v>
       </c>
       <c r="C357" t="s">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="D357" t="s">
         <v>374</v>
@@ -9541,7 +9589,7 @@
         <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="D358" t="s">
         <v>374</v>
@@ -9552,13 +9600,13 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>1784</v>
+        <v>1758</v>
       </c>
       <c r="D359" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="E359" t="s">
-        <v>1785</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.15">
@@ -9566,10 +9614,10 @@
         <v>360</v>
       </c>
       <c r="C360" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D360" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.15">
@@ -9577,10 +9625,10 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D361" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.15">
@@ -9588,10 +9636,10 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D362" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.15">
@@ -9599,13 +9647,13 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D363" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E363" t="s">
-        <v>1781</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.15">
@@ -9613,13 +9661,13 @@
         <v>364</v>
       </c>
       <c r="C364" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D364" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="E364" t="s">
-        <v>1783</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.15">
@@ -9627,10 +9675,10 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D365" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.15">
@@ -9638,10 +9686,10 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D366" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.15">
@@ -9649,10 +9697,10 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D367" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.15">
@@ -9660,10 +9708,10 @@
         <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D368" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.15">
@@ -9671,10 +9719,10 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D369" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.15">
@@ -9682,10 +9730,10 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D370" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.15">
@@ -9693,10 +9741,10 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D371" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.15">
@@ -9704,10 +9752,10 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D372" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.15">
@@ -9723,13 +9771,13 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D374" t="s">
-        <v>1786</v>
+        <v>1760</v>
       </c>
       <c r="E374" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.15">
@@ -9737,7 +9785,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>1787</v>
+        <v>1761</v>
       </c>
       <c r="D375" t="s">
         <v>374</v>
@@ -9748,10 +9796,10 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D376" t="s">
-        <v>1790</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.15">
@@ -9759,10 +9807,10 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D377" t="s">
-        <v>1789</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.15">
@@ -9770,7 +9818,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D378" t="s">
         <v>374</v>
@@ -9781,13 +9829,13 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D379" t="s">
-        <v>1799</v>
+        <v>1773</v>
       </c>
       <c r="E379" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.15">
@@ -9795,10 +9843,10 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D380" t="s">
-        <v>1789</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.15">
@@ -9806,7 +9854,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D381" t="s">
         <v>374</v>
@@ -9817,7 +9865,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D382" t="s">
         <v>374</v>
@@ -9828,13 +9876,13 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D383" t="s">
-        <v>1791</v>
+        <v>1765</v>
       </c>
       <c r="E383" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.15">
@@ -9842,13 +9890,13 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D384" t="s">
-        <v>1792</v>
+        <v>1766</v>
       </c>
       <c r="E384" t="s">
-        <v>1793</v>
+        <v>1767</v>
       </c>
       <c r="F384" t="s">
         <v>374</v>
@@ -9859,13 +9907,13 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D385" t="s">
-        <v>1794</v>
+        <v>1768</v>
       </c>
       <c r="E385" t="s">
-        <v>1789</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -9873,13 +9921,13 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D386" t="s">
-        <v>1798</v>
+        <v>1772</v>
       </c>
       <c r="E386" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -9887,16 +9935,16 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>1795</v>
+        <v>1769</v>
       </c>
       <c r="D387" t="s">
-        <v>1796</v>
+        <v>1770</v>
       </c>
       <c r="E387" t="s">
-        <v>1797</v>
+        <v>1771</v>
       </c>
       <c r="F387" t="s">
-        <v>1788</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -9904,36 +9952,36 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D388" t="s">
-        <v>1800</v>
+        <v>1774</v>
       </c>
       <c r="E388" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="F388" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="G388" t="s">
-        <v>1801</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>1592</v>
+        <v>1566</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>1820</v>
+        <v>1794</v>
       </c>
       <c r="D389" t="s">
-        <v>1821</v>
+        <v>1795</v>
       </c>
       <c r="E389" t="s">
-        <v>1822</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -9941,13 +9989,13 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D390" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="E390" t="s">
-        <v>1822</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
@@ -9955,13 +10003,13 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D391" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E391" t="s">
-        <v>1823</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -9969,19 +10017,19 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D392" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E392" t="s">
-        <v>1824</v>
+        <v>1798</v>
       </c>
       <c r="F392" t="s">
-        <v>1825</v>
+        <v>1799</v>
       </c>
       <c r="G392" t="s">
-        <v>1826</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -9989,16 +10037,16 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D393" t="s">
-        <v>1827</v>
+        <v>1801</v>
       </c>
       <c r="E393" t="s">
-        <v>1828</v>
+        <v>1802</v>
       </c>
       <c r="F393" t="s">
-        <v>1829</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -10006,16 +10054,16 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D394" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="E394" t="s">
-        <v>1830</v>
+        <v>1804</v>
       </c>
       <c r="F394" t="s">
-        <v>1831</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -10023,16 +10071,16 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D395" t="s">
-        <v>1821</v>
+        <v>1795</v>
       </c>
       <c r="E395" t="s">
-        <v>1830</v>
+        <v>1804</v>
       </c>
       <c r="F395" t="s">
-        <v>1832</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
@@ -10040,19 +10088,19 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D396" t="s">
         <v>1761</v>
       </c>
-      <c r="D396" t="s">
-        <v>1787</v>
-      </c>
       <c r="E396" t="s">
-        <v>1824</v>
+        <v>1798</v>
       </c>
       <c r="F396" t="s">
-        <v>1833</v>
+        <v>1807</v>
       </c>
       <c r="G396" t="s">
-        <v>1834</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
@@ -10060,16 +10108,16 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D397" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="E397" t="s">
-        <v>1830</v>
+        <v>1804</v>
       </c>
       <c r="F397" t="s">
-        <v>1832</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -10077,16 +10125,16 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D398" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E398" t="s">
-        <v>1824</v>
+        <v>1798</v>
       </c>
       <c r="F398" t="s">
-        <v>1832</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -10094,16 +10142,16 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D399" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E399" t="s">
-        <v>1864</v>
+        <v>1838</v>
       </c>
       <c r="F399" t="s">
-        <v>1865</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -10111,16 +10159,16 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D400" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E400" t="s">
-        <v>1857</v>
+        <v>1831</v>
       </c>
       <c r="F400" t="s">
-        <v>1863</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.15">
@@ -10128,16 +10176,16 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D401" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E401" t="s">
-        <v>1860</v>
+        <v>1834</v>
       </c>
       <c r="F401" t="s">
-        <v>1862</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.15">
@@ -10145,19 +10193,19 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="D402" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="E402" t="s">
-        <v>1859</v>
+        <v>1833</v>
       </c>
       <c r="F402" t="s">
-        <v>1860</v>
+        <v>1834</v>
       </c>
       <c r="G402" t="s">
-        <v>1861</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.15">
@@ -10165,19 +10213,19 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>1855</v>
+        <v>1829</v>
       </c>
       <c r="D403" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="E403" t="s">
-        <v>1856</v>
+        <v>1830</v>
       </c>
       <c r="F403" t="s">
-        <v>1857</v>
+        <v>1831</v>
       </c>
       <c r="G403" t="s">
-        <v>1858</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.15">
@@ -10185,13 +10233,13 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D404" t="s">
-        <v>1853</v>
+        <v>1827</v>
       </c>
       <c r="E404" t="s">
-        <v>1854</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.15">
@@ -10199,16 +10247,16 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D405" t="s">
-        <v>1850</v>
+        <v>1824</v>
       </c>
       <c r="E405" t="s">
-        <v>1851</v>
+        <v>1825</v>
       </c>
       <c r="F405" t="s">
-        <v>1852</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.15">
@@ -10216,13 +10264,13 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D406" t="s">
-        <v>1848</v>
+        <v>1822</v>
       </c>
       <c r="E406" t="s">
-        <v>1849</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.15">
@@ -10230,10 +10278,10 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>1782</v>
+        <v>1756</v>
       </c>
       <c r="D407" t="s">
-        <v>1847</v>
+        <v>1821</v>
       </c>
       <c r="E407" t="s">
         <v>427</v>
@@ -10244,13 +10292,13 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>1845</v>
+        <v>1819</v>
       </c>
       <c r="D408" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="E408" t="s">
-        <v>1846</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.15">
@@ -10258,13 +10306,13 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="D409" t="s">
-        <v>1843</v>
+        <v>1817</v>
       </c>
       <c r="E409" t="s">
-        <v>1844</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.15">
@@ -10272,13 +10320,13 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="D410" t="s">
-        <v>1842</v>
+        <v>1816</v>
       </c>
       <c r="E410" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.15">
@@ -10286,13 +10334,13 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D411" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="E411" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.15">
@@ -10300,22 +10348,22 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="D412" t="s">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="E412" t="s">
-        <v>1836</v>
+        <v>1810</v>
       </c>
       <c r="F412" t="s">
-        <v>1839</v>
+        <v>1813</v>
       </c>
       <c r="G412" t="s">
-        <v>1840</v>
+        <v>1814</v>
       </c>
       <c r="H412" t="s">
-        <v>1841</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.15">
@@ -10326,13 +10374,13 @@
         <v>415</v>
       </c>
       <c r="D413" t="s">
-        <v>1835</v>
+        <v>1809</v>
       </c>
       <c r="E413" t="s">
-        <v>1836</v>
+        <v>1810</v>
       </c>
       <c r="F413" t="s">
-        <v>1837</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.15">
@@ -10340,13 +10388,13 @@
         <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D414" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="E414" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.15">
@@ -10354,13 +10402,13 @@
         <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D415" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="E415" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.15">
@@ -10368,13 +10416,13 @@
         <v>418</v>
       </c>
       <c r="C416" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D416" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="E416" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.15">
@@ -10382,13 +10430,13 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>1818</v>
+        <v>1792</v>
       </c>
       <c r="D417" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
       <c r="E417" t="s">
-        <v>1819</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.15">
@@ -10396,13 +10444,13 @@
         <v>420</v>
       </c>
       <c r="C418" t="s">
-        <v>1813</v>
+        <v>1787</v>
       </c>
       <c r="D418" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="E418" t="s">
-        <v>1815</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.15">
@@ -10410,7 +10458,7 @@
         <v>421</v>
       </c>
       <c r="C419" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D419" t="s">
         <v>427</v>
@@ -10421,7 +10469,7 @@
         <v>422</v>
       </c>
       <c r="C420" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D420" t="s">
         <v>427</v>
@@ -10432,7 +10480,7 @@
         <v>423</v>
       </c>
       <c r="C421" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="D421" t="s">
         <v>427</v>
@@ -10443,10 +10491,10 @@
         <v>424</v>
       </c>
       <c r="C422" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="D422" t="s">
-        <v>1809</v>
+        <v>1783</v>
       </c>
       <c r="E422" t="s">
         <v>427</v>
@@ -10457,13 +10505,13 @@
         <v>425</v>
       </c>
       <c r="C423" t="s">
-        <v>1810</v>
+        <v>1784</v>
       </c>
       <c r="D423" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="E423" t="s">
-        <v>1812</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.15">
@@ -10519,13 +10567,13 @@
         <v>435</v>
       </c>
       <c r="C430" t="s">
-        <v>1805</v>
+        <v>1779</v>
       </c>
       <c r="D430" t="s">
-        <v>1806</v>
+        <v>1780</v>
       </c>
       <c r="E430" t="s">
-        <v>1807</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.15">
@@ -10533,7 +10581,7 @@
         <v>436</v>
       </c>
       <c r="C431" t="s">
-        <v>1802</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.15">
@@ -10541,7 +10589,7 @@
         <v>437</v>
       </c>
       <c r="C432" t="s">
-        <v>1802</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.15">
@@ -10549,7 +10597,7 @@
         <v>438</v>
       </c>
       <c r="C433" t="s">
-        <v>1802</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.15">
@@ -10557,10 +10605,10 @@
         <v>439</v>
       </c>
       <c r="C434" t="s">
-        <v>1802</v>
+        <v>1776</v>
       </c>
       <c r="D434" t="s">
-        <v>1804</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.15">
@@ -10568,7 +10616,7 @@
         <v>440</v>
       </c>
       <c r="C435" t="s">
-        <v>1803</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.15">
@@ -10824,10 +10872,10 @@
         <v>496</v>
       </c>
       <c r="C467" t="s">
-        <v>1593</v>
+        <v>1567</v>
       </c>
       <c r="D467" t="s">
-        <v>1594</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.15">
@@ -10835,10 +10883,10 @@
         <v>497</v>
       </c>
       <c r="C468" t="s">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="D468" t="s">
-        <v>1596</v>
+        <v>1570</v>
       </c>
       <c r="E468" t="s">
         <v>459</v>
@@ -10849,7 +10897,7 @@
         <v>498</v>
       </c>
       <c r="C469" t="s">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="D469" t="s">
         <v>459</v>
@@ -10860,10 +10908,10 @@
         <v>499</v>
       </c>
       <c r="C470" t="s">
-        <v>1597</v>
+        <v>1571</v>
       </c>
       <c r="D470" t="s">
-        <v>1594</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.15">
@@ -10871,10 +10919,10 @@
         <v>500</v>
       </c>
       <c r="C471" t="s">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="D471" t="s">
-        <v>1598</v>
+        <v>1572</v>
       </c>
       <c r="E471" t="s">
         <v>459</v>
@@ -10885,10 +10933,10 @@
         <v>501</v>
       </c>
       <c r="C472" t="s">
-        <v>1599</v>
+        <v>1573</v>
       </c>
       <c r="D472" t="s">
-        <v>1594</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.15">
@@ -10896,7 +10944,7 @@
         <v>502</v>
       </c>
       <c r="C473" t="s">
-        <v>1600</v>
+        <v>1574</v>
       </c>
       <c r="D473" t="s">
         <v>459</v>
@@ -10915,10 +10963,10 @@
         <v>504</v>
       </c>
       <c r="C475" t="s">
-        <v>1601</v>
+        <v>1575</v>
       </c>
       <c r="D475" t="s">
-        <v>1594</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.15">
@@ -10958,10 +11006,10 @@
         <v>512</v>
       </c>
       <c r="C480" t="s">
-        <v>1602</v>
+        <v>1576</v>
       </c>
       <c r="D480" t="s">
-        <v>1603</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.15">
@@ -10969,7 +11017,7 @@
         <v>513</v>
       </c>
       <c r="C481" t="s">
-        <v>1604</v>
+        <v>1578</v>
       </c>
       <c r="D481" t="s">
         <v>510</v>
@@ -10980,7 +11028,7 @@
         <v>514</v>
       </c>
       <c r="C482" t="s">
-        <v>1604</v>
+        <v>1578</v>
       </c>
       <c r="D482" t="s">
         <v>510</v>
@@ -11023,7 +11071,7 @@
         <v>519</v>
       </c>
       <c r="C487" t="s">
-        <v>1605</v>
+        <v>1579</v>
       </c>
       <c r="D487" t="s">
         <v>510</v>
@@ -11053,10 +11101,10 @@
         <v>510</v>
       </c>
       <c r="D490" t="s">
-        <v>1867</v>
+        <v>1841</v>
       </c>
       <c r="E490" t="s">
-        <v>1866</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.15">
@@ -11067,7 +11115,7 @@
         <v>510</v>
       </c>
       <c r="D491" t="s">
-        <v>1868</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.15">
@@ -11142,7 +11190,7 @@
         <v>510</v>
       </c>
       <c r="D500" t="s">
-        <v>1869</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="501" spans="2:7" x14ac:dyDescent="0.15">
@@ -11150,7 +11198,7 @@
         <v>534</v>
       </c>
       <c r="C501" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D501" t="s">
         <v>533</v>
@@ -11161,7 +11209,7 @@
         <v>535</v>
       </c>
       <c r="C502" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D502" t="s">
         <v>533</v>
@@ -11172,7 +11220,7 @@
         <v>536</v>
       </c>
       <c r="C503" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D503" t="s">
         <v>533</v>
@@ -11183,7 +11231,7 @@
         <v>537</v>
       </c>
       <c r="C504" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D504" t="s">
         <v>533</v>
@@ -11194,7 +11242,7 @@
         <v>538</v>
       </c>
       <c r="C505" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D505" t="s">
         <v>533</v>
@@ -11205,10 +11253,10 @@
         <v>539</v>
       </c>
       <c r="C506" t="s">
-        <v>1873</v>
+        <v>1847</v>
       </c>
       <c r="D506" t="s">
-        <v>1872</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="507" spans="2:7" x14ac:dyDescent="0.15">
@@ -11216,21 +11264,21 @@
         <v>540</v>
       </c>
       <c r="C507" t="s">
-        <v>1873</v>
+        <v>1847</v>
       </c>
       <c r="D507" t="s">
-        <v>1874</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="508" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B508" t="s">
-        <v>1876</v>
+        <v>1850</v>
       </c>
       <c r="C508" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D508" t="s">
-        <v>1875</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.15">
@@ -11238,13 +11286,13 @@
         <v>541</v>
       </c>
       <c r="C509" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D509" t="s">
-        <v>1877</v>
+        <v>1851</v>
       </c>
       <c r="E509" t="s">
-        <v>1878</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="510" spans="2:7" x14ac:dyDescent="0.15">
@@ -11252,19 +11300,19 @@
         <v>542</v>
       </c>
       <c r="C510" t="s">
-        <v>1873</v>
+        <v>1847</v>
       </c>
       <c r="D510" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="E510" t="s">
-        <v>1881</v>
+        <v>1855</v>
       </c>
       <c r="F510" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
       <c r="G510" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.15">
@@ -11272,19 +11320,19 @@
         <v>543</v>
       </c>
       <c r="C511" t="s">
-        <v>1873</v>
+        <v>1847</v>
       </c>
       <c r="D511" t="s">
-        <v>1879</v>
+        <v>1853</v>
       </c>
       <c r="E511" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="F511" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
       <c r="G511" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="512" spans="2:7" x14ac:dyDescent="0.15">
@@ -11292,19 +11340,19 @@
         <v>544</v>
       </c>
       <c r="C512" t="s">
-        <v>1884</v>
+        <v>1858</v>
       </c>
       <c r="D512" t="s">
-        <v>1885</v>
+        <v>1859</v>
       </c>
       <c r="E512" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="F512" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
       <c r="G512" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -11312,19 +11360,19 @@
         <v>545</v>
       </c>
       <c r="C513" t="s">
-        <v>1873</v>
+        <v>1847</v>
       </c>
       <c r="D513" t="s">
-        <v>1879</v>
+        <v>1853</v>
       </c>
       <c r="E513" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="F513" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
       <c r="G513" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.15">
@@ -11335,10 +11383,10 @@
         <v>510</v>
       </c>
       <c r="D514" t="s">
-        <v>1886</v>
+        <v>1860</v>
       </c>
       <c r="E514" t="s">
-        <v>1887</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -11346,7 +11394,7 @@
         <v>547</v>
       </c>
       <c r="C515" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D515" t="s">
         <v>533</v>
@@ -11357,7 +11405,7 @@
         <v>548</v>
       </c>
       <c r="C516" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D516" t="s">
         <v>533</v>
@@ -11368,7 +11416,7 @@
         <v>549</v>
       </c>
       <c r="C517" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D517" t="s">
         <v>533</v>
@@ -11379,10 +11427,10 @@
         <v>550</v>
       </c>
       <c r="C518" t="s">
-        <v>1870</v>
+        <v>1844</v>
       </c>
       <c r="D518" t="s">
-        <v>1871</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -11497,7 +11545,7 @@
         <v>571</v>
       </c>
       <c r="C532" t="s">
-        <v>1888</v>
+        <v>1862</v>
       </c>
       <c r="D532" t="s">
         <v>570</v>
@@ -11652,10 +11700,10 @@
         <v>601</v>
       </c>
       <c r="C551" t="s">
-        <v>1889</v>
+        <v>1863</v>
       </c>
       <c r="D551" t="s">
-        <v>1890</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.15">
@@ -11834,7 +11882,7 @@
         <v>634</v>
       </c>
       <c r="D573" t="s">
-        <v>1898</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.15">
@@ -11842,10 +11890,10 @@
         <v>639</v>
       </c>
       <c r="C574" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D574" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.15">
@@ -11853,10 +11901,10 @@
         <v>640</v>
       </c>
       <c r="C575" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D575" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.15">
@@ -11864,10 +11912,10 @@
         <v>641</v>
       </c>
       <c r="C576" t="s">
-        <v>1891</v>
+        <v>1865</v>
       </c>
       <c r="D576" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.15">
@@ -11875,10 +11923,10 @@
         <v>642</v>
       </c>
       <c r="C577" t="s">
-        <v>1893</v>
+        <v>1867</v>
       </c>
       <c r="D577" t="s">
-        <v>1894</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.15">
@@ -11886,10 +11934,10 @@
         <v>643</v>
       </c>
       <c r="C578" t="s">
-        <v>1895</v>
+        <v>1869</v>
       </c>
       <c r="D578" t="s">
-        <v>1894</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.15">
@@ -11897,10 +11945,10 @@
         <v>644</v>
       </c>
       <c r="C579" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D579" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.15">
@@ -11908,10 +11956,10 @@
         <v>645</v>
       </c>
       <c r="C580" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D580" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.15">
@@ -11919,10 +11967,10 @@
         <v>646</v>
       </c>
       <c r="C581" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D581" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="582" spans="2:5" x14ac:dyDescent="0.15">
@@ -11930,10 +11978,10 @@
         <v>647</v>
       </c>
       <c r="C582" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D582" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.15">
@@ -11941,10 +11989,10 @@
         <v>648</v>
       </c>
       <c r="C583" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D583" t="s">
-        <v>1900</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.15">
@@ -11952,10 +12000,10 @@
         <v>649</v>
       </c>
       <c r="C584" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D584" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.15">
@@ -11963,10 +12011,10 @@
         <v>650</v>
       </c>
       <c r="C585" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D585" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.15">
@@ -11974,10 +12022,10 @@
         <v>651</v>
       </c>
       <c r="C586" t="s">
-        <v>1896</v>
+        <v>1870</v>
       </c>
       <c r="D586" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.15">
@@ -11985,10 +12033,10 @@
         <v>652</v>
       </c>
       <c r="C587" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D587" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.15">
@@ -11996,10 +12044,10 @@
         <v>653</v>
       </c>
       <c r="C588" t="s">
-        <v>1897</v>
+        <v>1871</v>
       </c>
       <c r="D588" t="s">
-        <v>1894</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.15">
@@ -12007,10 +12055,10 @@
         <v>654</v>
       </c>
       <c r="C589" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D589" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.15">
@@ -12018,10 +12066,10 @@
         <v>655</v>
       </c>
       <c r="C590" t="s">
-        <v>1901</v>
+        <v>1875</v>
       </c>
       <c r="D590" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.15">
@@ -12029,13 +12077,13 @@
         <v>656</v>
       </c>
       <c r="C591" t="s">
-        <v>1902</v>
+        <v>1876</v>
       </c>
       <c r="D591" t="s">
-        <v>1903</v>
+        <v>1877</v>
       </c>
       <c r="E591" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.15">
@@ -12043,13 +12091,13 @@
         <v>657</v>
       </c>
       <c r="C592" t="s">
-        <v>1904</v>
+        <v>1878</v>
       </c>
       <c r="D592" t="s">
-        <v>1905</v>
+        <v>1879</v>
       </c>
       <c r="E592" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.15">
@@ -12057,13 +12105,13 @@
         <v>658</v>
       </c>
       <c r="C593" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D593" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
       <c r="E593" t="s">
-        <v>1906</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.15">
@@ -12071,13 +12119,13 @@
         <v>660</v>
       </c>
       <c r="C594" t="s">
-        <v>1899</v>
+        <v>1873</v>
       </c>
       <c r="D594" t="s">
-        <v>1906</v>
+        <v>1880</v>
       </c>
       <c r="E594" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="595" spans="2:5" x14ac:dyDescent="0.15">
@@ -12085,13 +12133,13 @@
         <v>661</v>
       </c>
       <c r="C595" t="s">
-        <v>1920</v>
+        <v>1894</v>
       </c>
       <c r="D595" t="s">
-        <v>1921</v>
+        <v>1895</v>
       </c>
       <c r="E595" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.15">
@@ -12099,13 +12147,13 @@
         <v>662</v>
       </c>
       <c r="C596" t="s">
-        <v>1922</v>
+        <v>1896</v>
       </c>
       <c r="D596" t="s">
-        <v>1923</v>
+        <v>1897</v>
       </c>
       <c r="E596" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.15">
@@ -12113,26 +12161,32 @@
         <v>663</v>
       </c>
       <c r="C597" t="s">
-        <v>1923</v>
+        <v>1897</v>
       </c>
       <c r="D597" t="s">
-        <v>1924</v>
+        <v>1898</v>
       </c>
       <c r="E597" t="s">
-        <v>1892</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B598" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C598" t="s">
-        <v>664</v>
+        <v>1898</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B599" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C599" t="s">
         <v>659</v>
@@ -12140,583 +12194,592 @@
     </row>
     <row r="600" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B600" t="s">
+        <v>666</v>
+      </c>
+      <c r="C600" t="s">
         <v>667</v>
-      </c>
-      <c r="C600" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B601" t="s">
+        <v>668</v>
+      </c>
+      <c r="C601" t="s">
         <v>669</v>
-      </c>
-      <c r="C601" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B602" t="s">
+        <v>670</v>
+      </c>
+      <c r="C602" t="s">
         <v>671</v>
-      </c>
-      <c r="C602" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B603" t="s">
+        <v>672</v>
+      </c>
+      <c r="C603" t="s">
         <v>673</v>
-      </c>
-      <c r="C603" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B604" t="s">
+        <v>674</v>
+      </c>
+      <c r="C604" t="s">
         <v>675</v>
-      </c>
-      <c r="C604" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="605" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B605" t="s">
+        <v>676</v>
+      </c>
+      <c r="C605" t="s">
         <v>677</v>
-      </c>
-      <c r="C605" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B606" t="s">
+        <v>678</v>
+      </c>
+      <c r="C606" t="s">
         <v>679</v>
-      </c>
-      <c r="C606" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B607" t="s">
+        <v>680</v>
+      </c>
+      <c r="C607" t="s">
         <v>681</v>
-      </c>
-      <c r="C607" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="608" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B608" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C608" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B609" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C609" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B610" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C610" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B611" t="s">
+        <v>685</v>
+      </c>
+      <c r="C611" t="s">
         <v>686</v>
-      </c>
-      <c r="C611" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B612" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C612" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="613" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B613" t="s">
+        <v>688</v>
+      </c>
+      <c r="C613" t="s">
         <v>689</v>
-      </c>
-      <c r="C613" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="614" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B614" t="s">
+        <v>690</v>
+      </c>
+      <c r="C614" t="s">
         <v>691</v>
-      </c>
-      <c r="C614" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="615" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B615" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C615" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B616" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C616" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B617" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C617" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B618" t="s">
+        <v>695</v>
+      </c>
+      <c r="C618" t="s">
         <v>696</v>
-      </c>
-      <c r="C618" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B619" t="s">
+        <v>697</v>
+      </c>
+      <c r="C619" t="s">
         <v>698</v>
-      </c>
-      <c r="C619" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="620" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B620" t="s">
+        <v>699</v>
+      </c>
+      <c r="C620" t="s">
         <v>700</v>
-      </c>
-      <c r="C620" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="621" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B621" t="s">
+        <v>701</v>
+      </c>
+      <c r="C621" t="s">
         <v>702</v>
-      </c>
-      <c r="C621" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="622" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B622" t="s">
+        <v>703</v>
+      </c>
+      <c r="C622" t="s">
         <v>704</v>
-      </c>
-      <c r="C622" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="623" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B623" t="s">
+        <v>705</v>
+      </c>
+      <c r="C623" t="s">
         <v>706</v>
-      </c>
-      <c r="C623" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="624" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B624" t="s">
+        <v>707</v>
+      </c>
+      <c r="C624" t="s">
         <v>708</v>
-      </c>
-      <c r="C624" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="625" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B625" t="s">
+        <v>709</v>
+      </c>
+      <c r="C625" t="s">
         <v>710</v>
-      </c>
-      <c r="C625" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B626" t="s">
+        <v>711</v>
+      </c>
+      <c r="C626" t="s">
         <v>712</v>
-      </c>
-      <c r="C626" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B627" t="s">
+        <v>713</v>
+      </c>
+      <c r="C627" t="s">
         <v>714</v>
-      </c>
-      <c r="C627" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C628" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B629" t="s">
+        <v>716</v>
+      </c>
+      <c r="C629" t="s">
         <v>717</v>
-      </c>
-      <c r="C629" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B630" t="s">
+        <v>718</v>
+      </c>
+      <c r="C630" t="s">
         <v>719</v>
-      </c>
-      <c r="C630" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B631" t="s">
+        <v>720</v>
+      </c>
+      <c r="C631" t="s">
         <v>721</v>
-      </c>
-      <c r="C631" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B632" t="s">
+        <v>722</v>
+      </c>
+      <c r="C632" t="s">
         <v>723</v>
-      </c>
-      <c r="C632" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B633" t="s">
+        <v>724</v>
+      </c>
+      <c r="C633" t="s">
         <v>725</v>
-      </c>
-      <c r="C633" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B634" t="s">
+        <v>726</v>
+      </c>
+      <c r="C634" t="s">
         <v>727</v>
-      </c>
-      <c r="C634" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B635" t="s">
+        <v>728</v>
+      </c>
+      <c r="C635" t="s">
         <v>729</v>
-      </c>
-      <c r="C635" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C636" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B637" t="s">
+        <v>731</v>
+      </c>
+      <c r="C637" t="s">
         <v>732</v>
-      </c>
-      <c r="C637" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B638" t="s">
+        <v>733</v>
+      </c>
+      <c r="C638" t="s">
         <v>734</v>
-      </c>
-      <c r="C638" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B639" t="s">
+        <v>735</v>
+      </c>
+      <c r="C639" t="s">
         <v>736</v>
-      </c>
-      <c r="C639" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="640" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B640" t="s">
+        <v>737</v>
+      </c>
+      <c r="C640" t="s">
         <v>738</v>
-      </c>
-      <c r="C640" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="641" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B641" t="s">
+        <v>739</v>
+      </c>
+      <c r="C641" t="s">
         <v>740</v>
-      </c>
-      <c r="C641" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="642" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B642" t="s">
+        <v>741</v>
+      </c>
+      <c r="C642" t="s">
         <v>742</v>
-      </c>
-      <c r="C642" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="643" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B643" t="s">
+        <v>743</v>
+      </c>
+      <c r="C643" t="s">
         <v>744</v>
-      </c>
-      <c r="C643" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="644" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B644" t="s">
+        <v>745</v>
+      </c>
+      <c r="C644" t="s">
         <v>746</v>
-      </c>
-      <c r="C644" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="645" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B645" t="s">
+        <v>747</v>
+      </c>
+      <c r="C645" t="s">
         <v>748</v>
-      </c>
-      <c r="C645" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="646" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B646" t="s">
+        <v>749</v>
+      </c>
+      <c r="C646" t="s">
         <v>750</v>
-      </c>
-      <c r="C646" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="647" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B647" t="s">
+        <v>751</v>
+      </c>
+      <c r="C647" t="s">
         <v>752</v>
-      </c>
-      <c r="C647" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="648" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B648" t="s">
+        <v>753</v>
+      </c>
+      <c r="C648" t="s">
         <v>754</v>
-      </c>
-      <c r="C648" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="649" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B649" t="s">
+        <v>755</v>
+      </c>
+      <c r="C649" t="s">
         <v>756</v>
-      </c>
-      <c r="C649" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="650" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B650" t="s">
+        <v>757</v>
+      </c>
+      <c r="C650" t="s">
         <v>758</v>
-      </c>
-      <c r="C650" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="651" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B651" t="s">
+        <v>759</v>
+      </c>
+      <c r="C651" t="s">
         <v>760</v>
-      </c>
-      <c r="C651" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="652" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B652" t="s">
+        <v>761</v>
+      </c>
+      <c r="C652" t="s">
         <v>762</v>
-      </c>
-      <c r="C652" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="653" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B653" t="s">
+        <v>763</v>
+      </c>
+      <c r="C653" t="s">
         <v>764</v>
-      </c>
-      <c r="C653" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="654" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B654" t="s">
+        <v>765</v>
+      </c>
+      <c r="C654" t="s">
         <v>766</v>
-      </c>
-      <c r="C654" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="655" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B655" t="s">
+        <v>767</v>
+      </c>
+      <c r="C655" t="s">
         <v>768</v>
-      </c>
-      <c r="C655" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="656" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B656" t="s">
+        <v>769</v>
+      </c>
+      <c r="C656" t="s">
         <v>770</v>
       </c>
-      <c r="C656" t="s">
+    </row>
+    <row r="657" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B657" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="657" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B657" t="s">
+      <c r="C657" t="s">
         <v>772</v>
       </c>
-      <c r="C657" t="s">
+    </row>
+    <row r="658" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B658" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="658" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B658" t="s">
+      <c r="C658" t="s">
         <v>774</v>
       </c>
-      <c r="C658" t="s">
+    </row>
+    <row r="659" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B659" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="659" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B659" t="s">
+      <c r="C659" t="s">
         <v>776</v>
       </c>
-      <c r="C659" t="s">
+    </row>
+    <row r="660" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B660" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="660" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B660" t="s">
+      <c r="C660" t="s">
         <v>778</v>
       </c>
-      <c r="C660" t="s">
+    </row>
+    <row r="661" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B661" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="661" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B661" t="s">
+      <c r="C661" t="s">
         <v>780</v>
       </c>
-      <c r="C661" t="s">
+    </row>
+    <row r="662" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B662" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="662" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B662" t="s">
+      <c r="C662" t="s">
         <v>782</v>
       </c>
-      <c r="C662" t="s">
+    </row>
+    <row r="663" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B663" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="663" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B663" t="s">
+      <c r="C663" t="s">
         <v>784</v>
       </c>
-      <c r="C663" t="s">
+    </row>
+    <row r="664" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B664" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="664" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B664" t="s">
+      <c r="C664" t="s">
         <v>786</v>
       </c>
-      <c r="C664" t="s">
+    </row>
+    <row r="665" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B665" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="665" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B665" t="s">
+      <c r="C665" t="s">
         <v>788</v>
       </c>
-      <c r="C665" t="s">
+    </row>
+    <row r="666" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B666" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="666" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B666" t="s">
+      <c r="C666" t="s">
         <v>790</v>
       </c>
-      <c r="C666" t="s">
+    </row>
+    <row r="667" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B667" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="667" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B667" t="s">
+      <c r="C667" t="s">
         <v>792</v>
       </c>
-      <c r="C667" t="s">
+    </row>
+    <row r="668" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B668" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="668" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B668" t="s">
+      <c r="C668" t="s">
         <v>794</v>
       </c>
-      <c r="C668" t="s">
+    </row>
+    <row r="669" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B669" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="669" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B669" t="s">
+      <c r="C669" t="s">
         <v>796</v>
       </c>
-      <c r="C669" t="s">
+    </row>
+    <row r="670" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B670" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="670" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B670" t="s">
+      <c r="C670" t="s">
         <v>798</v>
       </c>
-      <c r="C670" t="s">
+    </row>
+    <row r="671" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B671" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="671" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B671" t="s">
+      <c r="C671" t="s">
         <v>800</v>
       </c>
-      <c r="C671" t="s">
+    </row>
+    <row r="672" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B672" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="672" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B672" t="s">
+      <c r="C672" t="s">
         <v>802</v>
       </c>
-      <c r="C672" t="s">
+      <c r="D672" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B673" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="673" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C673" t="s">
         <v>804</v>
       </c>
@@ -12774,15 +12837,15 @@
         <v>817</v>
       </c>
       <c r="C680" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="681" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B681" t="s">
+        <v>818</v>
+      </c>
+      <c r="C681" t="s">
         <v>819</v>
-      </c>
-      <c r="C681" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="682" spans="2:3" x14ac:dyDescent="0.15">
@@ -12790,15 +12853,15 @@
         <v>820</v>
       </c>
       <c r="C682" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="683" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B683" t="s">
+        <v>821</v>
+      </c>
+      <c r="C683" t="s">
         <v>822</v>
-      </c>
-      <c r="C683" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="684" spans="2:3" x14ac:dyDescent="0.15">
@@ -12825,7 +12888,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="687" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B687" t="s">
         <v>829</v>
       </c>
@@ -12833,7 +12896,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="688" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B688" t="s">
         <v>831</v>
       </c>
@@ -12841,7 +12904,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="689" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B689" t="s">
         <v>833</v>
       </c>
@@ -12849,7 +12912,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="690" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B690" t="s">
         <v>835</v>
       </c>
@@ -12857,7 +12920,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="691" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B691" t="s">
         <v>837</v>
       </c>
@@ -12865,7 +12928,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="692" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="692" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B692" t="s">
         <v>839</v>
       </c>
@@ -12873,23 +12936,23 @@
         <v>840</v>
       </c>
     </row>
-    <row r="693" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="693" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B693" t="s">
         <v>841</v>
       </c>
       <c r="C693" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="694" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B694" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="694" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B694" t="s">
+      <c r="C694" t="s">
         <v>843</v>
       </c>
-      <c r="C694" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="695" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="695" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B695" t="s">
         <v>844</v>
       </c>
@@ -12897,7 +12960,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="696" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B696" t="s">
         <v>846</v>
       </c>
@@ -12905,2765 +12968,2867 @@
         <v>847</v>
       </c>
     </row>
-    <row r="697" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="697" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B697" t="s">
         <v>848</v>
       </c>
       <c r="C697" t="s">
+        <v>802</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F697" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="698" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B698" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="698" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B698" t="s">
+      <c r="C698" t="s">
         <v>850</v>
       </c>
-      <c r="C698" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="699" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="699" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B699" t="s">
+        <v>851</v>
+      </c>
       <c r="C699" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="700" spans="2:3" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="700" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B700" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C700" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="701" spans="2:3" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="701" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B701" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C701" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="702" spans="2:3" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="702" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B702" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C702" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="703" spans="2:3" x14ac:dyDescent="0.15">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="703" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B703" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C703" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="704" spans="2:3" x14ac:dyDescent="0.15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="704" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B704" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C704" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="705" spans="2:3" x14ac:dyDescent="0.15">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B705" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C705" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="706" spans="2:3" x14ac:dyDescent="0.15">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B706" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C706" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="707" spans="2:3" x14ac:dyDescent="0.15">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B707" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C707" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="708" spans="2:3" x14ac:dyDescent="0.15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B708" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C708" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="709" spans="2:3" x14ac:dyDescent="0.15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B709" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C709" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="710" spans="2:3" x14ac:dyDescent="0.15">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B710" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C710" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="711" spans="2:3" x14ac:dyDescent="0.15">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B711" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C711" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="712" spans="2:3" x14ac:dyDescent="0.15">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B712" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C712" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="713" spans="2:3" x14ac:dyDescent="0.15">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B713" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C713" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="714" spans="2:3" x14ac:dyDescent="0.15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B714" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C714" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="715" spans="2:3" x14ac:dyDescent="0.15">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B715" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C715" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="716" spans="2:3" x14ac:dyDescent="0.15">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="716" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B716" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C716" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="717" spans="2:3" x14ac:dyDescent="0.15">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B717" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C717" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="718" spans="2:3" x14ac:dyDescent="0.15">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B718" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C718" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="719" spans="2:3" x14ac:dyDescent="0.15">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B719" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C719" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="720" spans="2:3" x14ac:dyDescent="0.15">
+        <v>1903</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="720" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B720" t="s">
         <v>892</v>
       </c>
       <c r="C720" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="721" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B721" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="721" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B721" t="s">
+      <c r="C721" t="s">
         <v>894</v>
       </c>
-      <c r="C721" t="s">
+    </row>
+    <row r="722" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B722" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="722" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B722" t="s">
+      <c r="C722" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="723" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B723" t="s">
         <v>896</v>
       </c>
-      <c r="C722" t="s">
+      <c r="C723" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="724" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B724" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="723" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B723" t="s">
+      <c r="C724" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="725" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B725" t="s">
         <v>898</v>
       </c>
-      <c r="C723" t="s">
+      <c r="C725" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="726" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B726" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="724" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B724" t="s">
+      <c r="C726" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="727" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B727" t="s">
         <v>900</v>
       </c>
-      <c r="C724" t="s">
+      <c r="C727" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="728" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B728" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="725" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B725" t="s">
+      <c r="C728" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="729" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B729" t="s">
         <v>902</v>
       </c>
-      <c r="C725" t="s">
+      <c r="C729" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="730" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B730" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="726" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B726" t="s">
+      <c r="C730" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B731" t="s">
         <v>904</v>
       </c>
-      <c r="C726" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="727" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B727" t="s">
+      <c r="C731" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E731" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="732" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B732" t="s">
         <v>905</v>
       </c>
-      <c r="C727" t="s">
+      <c r="C732" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="733" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B733" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="728" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B728" t="s">
+      <c r="C733" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F733" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="734" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B734" t="s">
         <v>907</v>
       </c>
-      <c r="C728" t="s">
+      <c r="C734" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="735" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B735" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="729" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B729" t="s">
+      <c r="C735" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="736" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B736" t="s">
         <v>909</v>
       </c>
-      <c r="C729" t="s">
+      <c r="C736" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="737" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B737" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="730" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B730" t="s">
+      <c r="C737" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="738" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B738" t="s">
         <v>911</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C738" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="739" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B739" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="731" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B731" t="s">
+      <c r="C739" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="740" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B740" t="s">
         <v>913</v>
       </c>
-      <c r="C731" t="s">
+      <c r="C740" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="741" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B741" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="732" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B732" t="s">
+      <c r="C741" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="742" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B742" t="s">
         <v>915</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C742" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="743" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B743" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="733" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B733" t="s">
+      <c r="C743" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G743" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="744" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B744" t="s">
         <v>917</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C744" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="734" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B734" t="s">
+    <row r="745" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B745" t="s">
         <v>919</v>
       </c>
-      <c r="C734" t="s">
+      <c r="C745" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="735" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B735" t="s">
+    <row r="746" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B746" t="s">
         <v>921</v>
       </c>
-      <c r="C735" t="s">
+      <c r="C746" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="736" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B736" t="s">
+    <row r="747" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B747" t="s">
         <v>923</v>
       </c>
-      <c r="C736" t="s">
+      <c r="C747" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="737" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B737" t="s">
+    <row r="748" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B748" t="s">
         <v>925</v>
       </c>
-      <c r="C737" t="s">
+      <c r="C748" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="738" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B738" t="s">
+    <row r="749" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B749" t="s">
         <v>927</v>
       </c>
-      <c r="C738" t="s">
+      <c r="C749" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="739" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B739" t="s">
+    <row r="750" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B750" t="s">
         <v>929</v>
       </c>
-      <c r="C739" t="s">
+      <c r="C750" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="740" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B740" t="s">
+    <row r="751" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B751" t="s">
         <v>931</v>
       </c>
-      <c r="C740" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="741" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B741" t="s">
+      <c r="C751" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="752" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B752" t="s">
         <v>932</v>
       </c>
-      <c r="C741" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="742" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B742" t="s">
+      <c r="C752" t="s">
         <v>933</v>
-      </c>
-      <c r="C742" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="743" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B743" t="s">
-        <v>935</v>
-      </c>
-      <c r="C743" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="744" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B744" t="s">
-        <v>937</v>
-      </c>
-      <c r="C744" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="745" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B745" t="s">
-        <v>939</v>
-      </c>
-      <c r="C745" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="746" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B746" t="s">
-        <v>941</v>
-      </c>
-      <c r="C746" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="747" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B747" t="s">
-        <v>943</v>
-      </c>
-      <c r="C747" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="748" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B748" t="s">
-        <v>945</v>
-      </c>
-      <c r="C748" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="749" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B749" t="s">
-        <v>947</v>
-      </c>
-      <c r="C749" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="750" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B750" t="s">
-        <v>949</v>
-      </c>
-      <c r="C750" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="751" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B751" t="s">
-        <v>951</v>
-      </c>
-      <c r="C751" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="752" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B752" t="s">
-        <v>953</v>
-      </c>
-      <c r="C752" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="753" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B753" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C753" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
     </row>
     <row r="754" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B754" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="C754" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
     </row>
     <row r="755" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B755" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="C755" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="756" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B756" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="C756" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
     </row>
     <row r="757" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B757" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="C757" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="758" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B758" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="C758" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
     </row>
     <row r="759" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B759" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="C759" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="760" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B760" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="C760" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
     </row>
     <row r="761" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B761" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="C761" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
     </row>
     <row r="762" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B762" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C762" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
     </row>
     <row r="763" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B763" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="C763" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="764" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B764" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="C764" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="765" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B765" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="C765" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
     </row>
     <row r="766" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B766" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C766" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="767" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B767" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="C767" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
     </row>
     <row r="768" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B768" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="C768" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="769" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B769" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="C769" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="770" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B770" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="C770" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="771" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B771" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
       <c r="C771" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="772" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B772" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="C772" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
     </row>
     <row r="773" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B773" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="C773" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
     </row>
     <row r="774" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B774" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
       <c r="C774" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
     </row>
     <row r="775" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B775" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C775" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
     </row>
     <row r="776" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B776" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="C776" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
     </row>
     <row r="777" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B777" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
       <c r="C777" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
     </row>
     <row r="778" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B778" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C778" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="779" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B779" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="C779" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
     </row>
     <row r="780" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B780" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="C780" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="781" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B781" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="C781" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
     </row>
     <row r="782" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B782" t="s">
-        <v>1008</v>
-      </c>
       <c r="C782" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
     </row>
     <row r="783" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B783" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C783" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
     </row>
     <row r="784" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B784" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C784" t="s">
-        <v>1013</v>
+        <v>933</v>
       </c>
     </row>
     <row r="785" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B785" t="s">
+        <v>992</v>
+      </c>
       <c r="C785" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
     </row>
     <row r="786" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B786" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="C786" t="s">
-        <v>1016</v>
+        <v>933</v>
       </c>
     </row>
     <row r="787" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B787" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="C787" t="s">
-        <v>959</v>
+        <v>996</v>
       </c>
     </row>
     <row r="788" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B788" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C788" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
     </row>
     <row r="789" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B789" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="C789" t="s">
-        <v>959</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="790" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B790" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="C790" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="791" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B791" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C791" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="792" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B792" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="C792" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="793" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B793" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="C793" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="794" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B794" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="C794" t="s">
-        <v>1030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="795" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B795" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="C795" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="796" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B796" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
       <c r="C796" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="797" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B797" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="C797" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="798" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B798" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="C798" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="799" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B799" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="C799" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="800" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B800" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="C800" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="801" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B801" t="s">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="C801" t="s">
-        <v>1044</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="802" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B802" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="C802" t="s">
-        <v>1046</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="803" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B803" t="s">
-        <v>1047</v>
+        <v>1027</v>
       </c>
       <c r="C803" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="804" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B804" t="s">
-        <v>1049</v>
+        <v>1029</v>
       </c>
       <c r="C804" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="805" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B805" t="s">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="C805" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="806" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B806" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C806" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="807" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B807" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
       <c r="C807" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="808" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B808" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="C808" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="809" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B809" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="C809" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="810" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B810" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="C810" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="811" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B811" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="C811" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="812" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B812" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C812" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="813" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B813" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="C813" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="814" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B814" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="C814" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="815" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B815" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="C815" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="816" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B816" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="C816" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="817" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B817" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="C817" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="818" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B818" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="C818" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="819" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B819" t="s">
-        <v>1076</v>
+        <v>1053</v>
       </c>
       <c r="C819" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="820" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B820" t="s">
-        <v>1077</v>
+        <v>1054</v>
       </c>
       <c r="C820" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="821" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B821" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="C821" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="822" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B822" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="C822" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="823" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B823" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C823" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="824" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B824" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
       <c r="C824" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="825" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B825" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="C825" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="826" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B826" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="C826" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="827" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B827" t="s">
-        <v>1087</v>
-      </c>
       <c r="C827" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="828" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B828" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="C828" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="829" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B829" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="C829" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="830" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B830" t="s">
+        <v>1071</v>
+      </c>
       <c r="C830" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="831" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B831" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="C831" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="832" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B832" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="C832" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="833" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B833" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="C833" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="834" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B834" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="C834" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="835" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B835" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="C835" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="836" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B836" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="C836" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="837" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B837" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="C837" t="s">
-        <v>1106</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="838" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B838" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="C838" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="839" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B839" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C839" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="840" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B840" t="s">
-        <v>1111</v>
-      </c>
       <c r="C840" t="s">
-        <v>1609</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="841" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B841" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="C841" t="s">
-        <v>1113</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="842" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B842" t="s">
-        <v>1114</v>
+        <v>1091</v>
       </c>
       <c r="C842" t="s">
-        <v>1115</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="843" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B843" t="s">
+        <v>1092</v>
+      </c>
       <c r="C843" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="844" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B844" t="s">
-        <v>1116</v>
+        <v>1093</v>
       </c>
       <c r="C844" t="s">
-        <v>1611</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="845" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B845" t="s">
-        <v>1117</v>
+        <v>1094</v>
       </c>
       <c r="C845" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="846" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B846" t="s">
-        <v>1118</v>
+        <v>1095</v>
       </c>
       <c r="C846" t="s">
-        <v>1613</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="847" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B847" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="C847" t="s">
-        <v>1614</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="848" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B848" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="C848" t="s">
-        <v>1615</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B849" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="C849" t="s">
-        <v>1122</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B850" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
       <c r="C850" t="s">
-        <v>1616</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="851" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B851" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
       <c r="C851" t="s">
-        <v>1125</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="852" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B852" t="s">
-        <v>1126</v>
+        <v>1103</v>
       </c>
       <c r="C852" t="s">
-        <v>1612</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="853" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B853" t="s">
-        <v>1127</v>
+        <v>1104</v>
       </c>
       <c r="C853" t="s">
-        <v>1617</v>
+        <v>1659</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="854" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B854" t="s">
-        <v>1128</v>
+        <v>1105</v>
       </c>
       <c r="C854" t="s">
-        <v>1612</v>
+        <v>1659</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="855" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B855" t="s">
-        <v>1129</v>
+        <v>1106</v>
       </c>
       <c r="C855" t="s">
-        <v>1618</v>
+        <v>1659</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="856" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B856" t="s">
-        <v>1130</v>
+        <v>1107</v>
       </c>
       <c r="C856" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D856" t="s">
-        <v>1915</v>
+        <v>1889</v>
       </c>
       <c r="E856" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F856" t="s">
-        <v>1919</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="857" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B857" t="s">
-        <v>1131</v>
+        <v>1108</v>
       </c>
       <c r="C857" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D857" t="s">
-        <v>1915</v>
+        <v>1888</v>
       </c>
       <c r="E857" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F857" t="s">
-        <v>1917</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="858" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B858" t="s">
-        <v>1132</v>
+        <v>1109</v>
       </c>
       <c r="C858" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D858" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E858" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F858" t="s">
-        <v>1916</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="859" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B859" t="s">
-        <v>1133</v>
+        <v>1110</v>
       </c>
       <c r="C859" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D859" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E859" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="860" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B860" t="s">
-        <v>1134</v>
+        <v>1111</v>
       </c>
       <c r="C860" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D860" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E860" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="861" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B861" t="s">
-        <v>1135</v>
+        <v>1112</v>
       </c>
       <c r="C861" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="D861" t="s">
-        <v>1907</v>
+        <v>1885</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="862" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B862" t="s">
-        <v>1136</v>
+        <v>1113</v>
       </c>
       <c r="C862" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D862" t="s">
-        <v>1907</v>
+        <v>1882</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1881</v>
       </c>
     </row>
     <row r="863" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B863" t="s">
-        <v>1137</v>
+        <v>1114</v>
       </c>
       <c r="C863" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D863" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="864" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B864" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="C864" t="s">
-        <v>1695</v>
+        <v>1659</v>
       </c>
       <c r="D864" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E864" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F864" t="s">
-        <v>1913</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B865" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C865" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D865" t="s">
-        <v>1908</v>
+        <v>1883</v>
       </c>
       <c r="E865" t="s">
-        <v>1907</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B866" t="s">
-        <v>1140</v>
+        <v>1117</v>
       </c>
       <c r="C866" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D866" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B867" t="s">
-        <v>1141</v>
+        <v>1118</v>
       </c>
       <c r="C867" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D867" t="s">
-        <v>1907</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B868" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="C868" t="s">
-        <v>1685</v>
+        <v>1659</v>
       </c>
       <c r="D868" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E868" t="s">
-        <v>1910</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A869">
+        <v>1865</v>
+      </c>
       <c r="B869" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="C869" t="s">
-        <v>1685</v>
+        <v>1580</v>
       </c>
       <c r="D869" t="s">
-        <v>1907</v>
+        <v>1581</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B870" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="C870" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D870" t="s">
-        <v>1907</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B871" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="C871" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1907</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A872">
-        <v>1865</v>
-      </c>
       <c r="B872" t="s">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="C872" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E872" t="s">
-        <v>1608</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B873" t="s">
-        <v>1147</v>
+        <v>1124</v>
       </c>
       <c r="C873" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B874" t="s">
-        <v>1148</v>
+        <v>1125</v>
       </c>
       <c r="C874" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B875" t="s">
-        <v>1149</v>
+        <v>1126</v>
       </c>
       <c r="C875" t="s">
-        <v>1075</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B876" t="s">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="C876" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B877" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="C877" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B878" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
       <c r="C878" t="s">
-        <v>1153</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B879" t="s">
-        <v>1154</v>
+        <v>1131</v>
       </c>
       <c r="C879" t="s">
-        <v>1075</v>
+        <v>1659</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B880" t="s">
-        <v>1155</v>
+        <v>1132</v>
       </c>
       <c r="C880" t="s">
-        <v>1075</v>
+        <v>1669</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="881" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B881" t="s">
-        <v>1156</v>
+        <v>1133</v>
       </c>
       <c r="C881" t="s">
-        <v>1075</v>
+        <v>1049</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="882" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B882" t="s">
-        <v>1157</v>
+        <v>1134</v>
       </c>
       <c r="C882" t="s">
-        <v>1685</v>
+        <v>1049</v>
       </c>
       <c r="D882" t="s">
-        <v>1697</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="883" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B883" t="s">
-        <v>1158</v>
+        <v>1135</v>
       </c>
       <c r="C883" t="s">
-        <v>1695</v>
+        <v>1049</v>
       </c>
       <c r="D883" t="s">
-        <v>1696</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="884" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B884" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="C884" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D884" t="s">
-        <v>1694</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="885" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B885" t="s">
-        <v>1160</v>
+        <v>1137</v>
       </c>
       <c r="C885" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D885" t="s">
-        <v>1694</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="886" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B886" t="s">
-        <v>1161</v>
+        <v>1138</v>
       </c>
       <c r="C886" t="s">
-        <v>1075</v>
+        <v>1659</v>
       </c>
       <c r="D886" t="s">
-        <v>1694</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="887" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B887" t="s">
-        <v>1162</v>
+        <v>1139</v>
       </c>
       <c r="C887" t="s">
-        <v>1075</v>
+        <v>1659</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="888" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B888" t="s">
-        <v>1163</v>
+        <v>1140</v>
       </c>
       <c r="C888" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="889" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B889" t="s">
-        <v>1164</v>
+        <v>1141</v>
       </c>
       <c r="C889" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D889" t="s">
-        <v>1693</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="890" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B890" t="s">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="C890" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D890" t="s">
-        <v>1692</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="891" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B891" t="s">
-        <v>1166</v>
+        <v>1143</v>
       </c>
       <c r="C891" t="s">
-        <v>1075</v>
+        <v>1659</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="892" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B892" t="s">
-        <v>1167</v>
+        <v>1144</v>
       </c>
       <c r="C892" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="893" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B893" t="s">
-        <v>1168</v>
+        <v>1145</v>
       </c>
       <c r="C893" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="894" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B894" t="s">
-        <v>1169</v>
+        <v>1146</v>
       </c>
       <c r="C894" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D894" t="s">
-        <v>1691</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="895" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B895" t="s">
-        <v>1170</v>
+        <v>1147</v>
       </c>
       <c r="C895" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="896" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B896" t="s">
-        <v>1171</v>
+        <v>1148</v>
       </c>
       <c r="C896" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="897" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B897" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="C897" t="s">
-        <v>1075</v>
+        <v>1049</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="898" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B898" t="s">
-        <v>1173</v>
+        <v>1150</v>
       </c>
       <c r="C898" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="899" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B899" t="s">
-        <v>1174</v>
+        <v>1151</v>
       </c>
       <c r="C899" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="900" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B900" t="s">
-        <v>1175</v>
+        <v>1152</v>
       </c>
       <c r="C900" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
       <c r="D900" t="s">
-        <v>1690</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="901" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B901" t="s">
-        <v>1176</v>
+        <v>1153</v>
       </c>
       <c r="C901" t="s">
-        <v>1075</v>
+        <v>1659</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="902" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B902" t="s">
-        <v>1177</v>
+        <v>1154</v>
       </c>
       <c r="C902" t="s">
-        <v>1075</v>
+        <v>1659</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="903" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B903" t="s">
-        <v>1178</v>
+        <v>1155</v>
       </c>
       <c r="C903" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D903" t="s">
-        <v>1689</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="904" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B904" t="s">
-        <v>1179</v>
+        <v>1156</v>
       </c>
       <c r="C904" t="s">
-        <v>1685</v>
+        <v>1593</v>
       </c>
       <c r="D904" t="s">
-        <v>1687</v>
+        <v>1594</v>
       </c>
       <c r="E904" t="s">
-        <v>1688</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="905" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B905" t="s">
-        <v>1180</v>
+        <v>1157</v>
       </c>
       <c r="C905" t="s">
-        <v>1685</v>
+        <v>1596</v>
       </c>
       <c r="D905" t="s">
-        <v>1686</v>
+        <v>1597</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="906" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B906" t="s">
-        <v>1181</v>
+        <v>1158</v>
       </c>
       <c r="C906" t="s">
-        <v>1075</v>
+        <v>1599</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="907" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B907" t="s">
-        <v>1182</v>
+        <v>1159</v>
       </c>
       <c r="C907" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D907" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E907" t="s">
-        <v>1621</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="908" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B908" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="C908" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D908" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E908" t="s">
-        <v>1624</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="909" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B909" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
       <c r="C909" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D909" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E909" t="s">
-        <v>1627</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="910" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B910" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="C910" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="911" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B911" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="C911" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="912" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B912" t="s">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="C912" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="913" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B913" t="s">
-        <v>1189</v>
+        <v>1166</v>
       </c>
       <c r="C913" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D913" t="s">
-        <v>1629</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="914" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B914" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="C914" t="s">
-        <v>1186</v>
+        <v>1160</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="915" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B915" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="C915" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="916" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B916" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="C916" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="917" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B917" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="C917" t="s">
-        <v>1186</v>
+        <v>1602</v>
       </c>
       <c r="D917" t="s">
-        <v>1630</v>
+        <v>1606</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="918" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B918" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="C918" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="919" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B919" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="C919" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D919" t="s">
-        <v>1631</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="920" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B920" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
       <c r="C920" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D920" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E920" t="s">
-        <v>1633</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="921" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B921" t="s">
-        <v>1197</v>
+        <v>1174</v>
       </c>
       <c r="C921" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D921" t="s">
-        <v>1634</v>
+        <v>1609</v>
       </c>
       <c r="E921" t="s">
-        <v>1633</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="922" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B922" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
       <c r="C922" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="923" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B923" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="C923" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="924" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B924" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="C924" t="s">
-        <v>1628</v>
+        <v>1160</v>
       </c>
       <c r="D924" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E924" t="s">
-        <v>1636</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="925" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B925" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="C925" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="926" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B926" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="C926" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="927" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B927" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C927" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D927" t="s">
-        <v>1637</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="928" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B928" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="C928" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="929" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B929" t="s">
-        <v>1205</v>
+        <v>1182</v>
       </c>
       <c r="C929" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="930" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B930" t="s">
-        <v>1206</v>
+        <v>1183</v>
       </c>
       <c r="C930" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="931" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B931" t="s">
-        <v>1207</v>
+        <v>1184</v>
       </c>
       <c r="C931" t="s">
-        <v>1186</v>
+        <v>1616</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="932" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B932" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="C932" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E932" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F932" t="s">
-        <v>1640</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="933" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B933" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C933" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D933" t="s">
-        <v>1641</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="934" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B934" t="s">
-        <v>1210</v>
+        <v>1187</v>
       </c>
       <c r="C934" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E934" t="s">
-        <v>1643</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="935" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B935" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="C935" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="936" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B936" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="C936" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="937" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B937" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="C937" t="s">
-        <v>1186</v>
+        <v>1160</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="938" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B938" t="s">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="C938" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D938" t="s">
-        <v>1644</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="939" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B939" t="s">
-        <v>1215</v>
+        <v>1192</v>
       </c>
       <c r="C939" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D939" t="s">
-        <v>1644</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="940" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B940" t="s">
-        <v>1216</v>
+        <v>1193</v>
       </c>
       <c r="C940" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D940" t="s">
-        <v>1645</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="941" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B941" t="s">
-        <v>1217</v>
+        <v>1194</v>
       </c>
       <c r="C941" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D941" t="s">
-        <v>1646</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="942" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B942" t="s">
-        <v>1218</v>
+        <v>1195</v>
       </c>
       <c r="C942" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="943" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B943" t="s">
-        <v>1219</v>
+        <v>1196</v>
       </c>
       <c r="C943" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="944" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B944" t="s">
-        <v>1220</v>
+        <v>1197</v>
       </c>
       <c r="C944" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="945" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B945" t="s">
-        <v>1221</v>
+        <v>1198</v>
       </c>
       <c r="C945" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="946" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B946" t="s">
-        <v>1222</v>
+        <v>1199</v>
       </c>
       <c r="C946" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D946" t="s">
-        <v>1647</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="947" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B947" t="s">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="C947" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="948" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B948" t="s">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="C948" t="s">
-        <v>1186</v>
+        <v>1602</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="949" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B949" t="s">
-        <v>1225</v>
+        <v>1202</v>
       </c>
       <c r="C949" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D949" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="950" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B950" t="s">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="C950" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D950" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E950" t="s">
-        <v>1650</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="951" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B951" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="C951" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D951" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E951" t="s">
-        <v>1651</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="952" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B952" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="C952" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D952" t="s">
         <v>1628</v>
       </c>
-      <c r="D952" t="s">
-        <v>1652</v>
+      <c r="E952" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="953" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B953" t="s">
-        <v>1229</v>
+        <v>1206</v>
       </c>
       <c r="C953" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="D953" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="954" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B954" t="s">
-        <v>1230</v>
+        <v>1207</v>
       </c>
       <c r="C954" t="s">
-        <v>1628</v>
+        <v>1160</v>
       </c>
       <c r="D954" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="955" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B955" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="C955" t="s">
-        <v>1653</v>
+        <v>1602</v>
       </c>
       <c r="D955" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E955" t="s">
-        <v>1655</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="956" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B956" t="s">
-        <v>1232</v>
+        <v>1209</v>
       </c>
       <c r="C956" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="D956" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="957" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B957" t="s">
-        <v>1233</v>
+        <v>1210</v>
       </c>
       <c r="C957" t="s">
-        <v>1186</v>
+        <v>1634</v>
       </c>
       <c r="D957" t="s">
-        <v>1658</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="958" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B958" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="C958" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
       <c r="D958" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="959" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B959" t="s">
-        <v>1235</v>
+        <v>1212</v>
       </c>
       <c r="C959" t="s">
-        <v>1659</v>
+        <v>1637</v>
       </c>
       <c r="D959" t="s">
-        <v>1652</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="960" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B960" t="s">
-        <v>1236</v>
+        <v>1213</v>
       </c>
       <c r="C960" t="s">
-        <v>1660</v>
+        <v>1638</v>
       </c>
       <c r="D960" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="961" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B961" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="C961" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="D961" t="s">
-        <v>1662</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="962" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B962" t="s">
-        <v>1238</v>
+        <v>1215</v>
       </c>
       <c r="C962" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
       <c r="D962" t="s">
-        <v>1652</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="963" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B963" t="s">
-        <v>1239</v>
+        <v>1216</v>
       </c>
       <c r="C963" t="s">
-        <v>1664</v>
+        <v>1642</v>
       </c>
       <c r="D963" t="s">
-        <v>1665</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="964" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B964" t="s">
-        <v>1240</v>
+        <v>1217</v>
       </c>
       <c r="C964" t="s">
-        <v>1666</v>
+        <v>1643</v>
       </c>
       <c r="D964" t="s">
-        <v>1652</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="965" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B965" t="s">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="C965" t="s">
-        <v>1667</v>
+        <v>1644</v>
       </c>
       <c r="D965" t="s">
-        <v>1652</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="966" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B966" t="s">
-        <v>1242</v>
+        <v>1219</v>
       </c>
       <c r="C966" t="s">
-        <v>1668</v>
+        <v>1645</v>
       </c>
       <c r="D966" t="s">
-        <v>1652</v>
+        <v>1646</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="967" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B967" t="s">
-        <v>1243</v>
+        <v>1220</v>
       </c>
       <c r="C967" t="s">
-        <v>1669</v>
+        <v>1647</v>
       </c>
       <c r="D967" t="s">
-        <v>1652</v>
+        <v>1632</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="968" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B968" t="s">
-        <v>1244</v>
+        <v>1221</v>
       </c>
       <c r="C968" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="D968" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="969" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B969" t="s">
-        <v>1245</v>
+        <v>1222</v>
       </c>
       <c r="C969" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D969" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E969" t="s">
-        <v>1652</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="970" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B970" t="s">
-        <v>1246</v>
+        <v>1224</v>
       </c>
       <c r="C970" t="s">
-        <v>1673</v>
+        <v>1651</v>
       </c>
       <c r="D970" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E970" t="s">
-        <v>1674</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="971" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B971" t="s">
-        <v>1247</v>
+        <v>1225</v>
       </c>
       <c r="C971" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D971" t="s">
-        <v>1676</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="972" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B972" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="C972" t="s">
-        <v>1249</v>
+        <v>1653</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="973" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B973" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="C973" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D973" t="s">
-        <v>1678</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="974" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B974" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="C974" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="975" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B975" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="C975" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D975" t="s">
-        <v>1680</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="976" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B976" t="s">
-        <v>1254</v>
+        <v>1234</v>
       </c>
       <c r="C976" t="s">
-        <v>1255</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="977" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B977" t="s">
-        <v>1256</v>
+        <v>1236</v>
       </c>
       <c r="C977" t="s">
-        <v>1257</v>
+        <v>1655</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="978" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B978" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="C978" t="s">
-        <v>1259</v>
+        <v>1657</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="979" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B979" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="C979" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="980" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B980" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="C980" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D980" t="s">
-        <v>1682</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="981" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B981" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="C981" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D981" t="s">
-        <v>1684</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="982" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B982" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="C982" t="s">
-        <v>1265</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="983" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B983" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="C983" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="984" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B984" t="s">
-        <v>1268</v>
+        <v>1248</v>
       </c>
       <c r="C984" t="s">
-        <v>1269</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="985" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B985" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="C985" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="986" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B986" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="C986" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="987" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B987" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="C987" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="988" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B988" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="C988" t="s">
-        <v>1277</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="989" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B989" t="s">
-        <v>1278</v>
+        <v>1258</v>
       </c>
       <c r="C989" t="s">
-        <v>1279</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="990" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B990" t="s">
-        <v>1280</v>
+        <v>380</v>
       </c>
       <c r="C990" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="991" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B991" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="C991" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="992" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B992" t="s">
-        <v>1284</v>
+        <v>404</v>
       </c>
       <c r="C992" t="s">
-        <v>1285</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="993" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B993" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C993" t="s">
-        <v>1286</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="994" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B994" t="s">
-        <v>1287</v>
+        <v>416</v>
       </c>
       <c r="C994" t="s">
-        <v>1288</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="995" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B995" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C995" t="s">
-        <v>1289</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="996" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B996" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C996" t="s">
-        <v>1290</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="997" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B997" t="s">
-        <v>416</v>
+        <v>1268</v>
       </c>
       <c r="C997" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="998" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B998" t="s">
-        <v>421</v>
+        <v>1270</v>
       </c>
       <c r="C998" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="999" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B999" t="s">
-        <v>426</v>
+        <v>1272</v>
       </c>
       <c r="C999" t="s">
-        <v>1293</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1000" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1000" t="s">
-        <v>1294</v>
+        <v>652</v>
       </c>
       <c r="C1000" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1001" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1001" t="s">
-        <v>1296</v>
+        <v>846</v>
       </c>
       <c r="C1001" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1002" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1002" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1003" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1003" t="s">
-        <v>652</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1004" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1004" t="s">
-        <v>848</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>1301</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
